--- a/data/nzd0346/nzd0346.xlsx
+++ b/data/nzd0346/nzd0346.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N377"/>
+  <dimension ref="A1:N384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17468,6 +17468,320 @@
         </is>
       </c>
     </row>
+    <row r="378">
+      <c r="A378" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-29 21:55:08+00:00</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>342.18</v>
+      </c>
+      <c r="C378" t="n">
+        <v>336.73</v>
+      </c>
+      <c r="D378" t="n">
+        <v>326.4066666666667</v>
+      </c>
+      <c r="E378" t="n">
+        <v>335.6566666666667</v>
+      </c>
+      <c r="F378" t="n">
+        <v>334.75</v>
+      </c>
+      <c r="G378" t="n">
+        <v>337.8445454545454</v>
+      </c>
+      <c r="H378" t="n">
+        <v>338.09</v>
+      </c>
+      <c r="I378" t="n">
+        <v>337.5255555555556</v>
+      </c>
+      <c r="J378" t="n">
+        <v>339.6855555555555</v>
+      </c>
+      <c r="K378" t="n">
+        <v>337.6645454545454</v>
+      </c>
+      <c r="L378" t="n">
+        <v>323.8914285714285</v>
+      </c>
+      <c r="M378" t="n">
+        <v>324.01</v>
+      </c>
+      <c r="N378" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-06 22:01:11+00:00</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>351.4</v>
+      </c>
+      <c r="C379" t="n">
+        <v>340.47</v>
+      </c>
+      <c r="D379" t="n">
+        <v>332.99</v>
+      </c>
+      <c r="E379" t="n">
+        <v>332.58</v>
+      </c>
+      <c r="F379" t="n">
+        <v>343.95</v>
+      </c>
+      <c r="G379" t="n">
+        <v>344.8109090909091</v>
+      </c>
+      <c r="H379" t="n">
+        <v>338.12</v>
+      </c>
+      <c r="I379" t="n">
+        <v>342.63</v>
+      </c>
+      <c r="J379" t="n">
+        <v>344.06</v>
+      </c>
+      <c r="K379" t="n">
+        <v>329.9109090909091</v>
+      </c>
+      <c r="L379" t="n">
+        <v>332.7014285714285</v>
+      </c>
+      <c r="M379" t="n">
+        <v>332.85</v>
+      </c>
+      <c r="N379" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-14 22:00:39+00:00</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>340.64</v>
+      </c>
+      <c r="C380" t="n">
+        <v>332.62</v>
+      </c>
+      <c r="D380" t="n">
+        <v>325.3966666666667</v>
+      </c>
+      <c r="E380" t="n">
+        <v>332.4266666666667</v>
+      </c>
+      <c r="F380" t="n">
+        <v>328.63</v>
+      </c>
+      <c r="G380" t="n">
+        <v>334.7163636363636</v>
+      </c>
+      <c r="H380" t="n">
+        <v>332.73</v>
+      </c>
+      <c r="I380" t="n">
+        <v>333.3088888888889</v>
+      </c>
+      <c r="J380" t="n">
+        <v>336.9388888888889</v>
+      </c>
+      <c r="K380" t="n">
+        <v>334.9963636363636</v>
+      </c>
+      <c r="L380" t="n">
+        <v>319.5714285714286</v>
+      </c>
+      <c r="M380" t="n">
+        <v>309.71</v>
+      </c>
+      <c r="N380" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-15 22:01:08+00:00</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>341.79</v>
+      </c>
+      <c r="C381" t="n">
+        <v>335.37</v>
+      </c>
+      <c r="D381" t="n">
+        <v>329.5066666666667</v>
+      </c>
+      <c r="E381" t="n">
+        <v>327.4666666666667</v>
+      </c>
+      <c r="F381" t="n">
+        <v>329.59</v>
+      </c>
+      <c r="G381" t="n">
+        <v>337.2118181818182</v>
+      </c>
+      <c r="H381" t="n">
+        <v>332.29</v>
+      </c>
+      <c r="I381" t="n">
+        <v>320.8522222222222</v>
+      </c>
+      <c r="J381" t="n">
+        <v>319.0722222222223</v>
+      </c>
+      <c r="K381" t="n">
+        <v>322.2818181818182</v>
+      </c>
+      <c r="L381" t="n">
+        <v>320.3357142857143</v>
+      </c>
+      <c r="M381" t="n">
+        <v>294.77</v>
+      </c>
+      <c r="N381" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-16 21:55:04+00:00</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr"/>
+      <c r="C382" t="n">
+        <v>321.69</v>
+      </c>
+      <c r="D382" t="inlineStr"/>
+      <c r="E382" t="inlineStr"/>
+      <c r="F382" t="inlineStr"/>
+      <c r="G382" t="inlineStr"/>
+      <c r="H382" t="inlineStr"/>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
+      <c r="L382" t="inlineStr"/>
+      <c r="M382" t="inlineStr"/>
+      <c r="N382" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-08 22:00:47+00:00</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>345.18</v>
+      </c>
+      <c r="C383" t="n">
+        <v>336.7</v>
+      </c>
+      <c r="D383" t="n">
+        <v>340.55</v>
+      </c>
+      <c r="E383" t="n">
+        <v>338.91</v>
+      </c>
+      <c r="F383" t="n">
+        <v>338.15</v>
+      </c>
+      <c r="G383" t="n">
+        <v>338.2936363636364</v>
+      </c>
+      <c r="H383" t="n">
+        <v>327.93</v>
+      </c>
+      <c r="I383" t="n">
+        <v>319.6066666666667</v>
+      </c>
+      <c r="J383" t="n">
+        <v>319.1866666666667</v>
+      </c>
+      <c r="K383" t="n">
+        <v>318.8236363636364</v>
+      </c>
+      <c r="L383" t="n">
+        <v>314.71</v>
+      </c>
+      <c r="M383" t="n">
+        <v>306.76</v>
+      </c>
+      <c r="N383" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:01:09+00:00</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>346.03</v>
+      </c>
+      <c r="C384" t="n">
+        <v>337.5</v>
+      </c>
+      <c r="D384" t="n">
+        <v>337.7533333333333</v>
+      </c>
+      <c r="E384" t="n">
+        <v>340.1733333333333</v>
+      </c>
+      <c r="F384" t="n">
+        <v>334.27</v>
+      </c>
+      <c r="G384" t="n">
+        <v>336.3918181818182</v>
+      </c>
+      <c r="H384" t="n">
+        <v>330.88</v>
+      </c>
+      <c r="I384" t="n">
+        <v>324.3844444444445</v>
+      </c>
+      <c r="J384" t="n">
+        <v>325.7444444444445</v>
+      </c>
+      <c r="K384" t="n">
+        <v>321.0318181818182</v>
+      </c>
+      <c r="L384" t="n">
+        <v>322.8342857142857</v>
+      </c>
+      <c r="M384" t="n">
+        <v>312.52</v>
+      </c>
+      <c r="N384" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17479,7 +17793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B401"/>
+  <dimension ref="A1:B409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21497,6 +21811,86 @@
       </c>
       <c r="B401" t="n">
         <v>0.76</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>2024-12-06 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>2024-12-14 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>2024-12-15 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>2025-01-15 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>2025-01-16 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>2025-02-08 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>-0.43</v>
       </c>
     </row>
   </sheetData>
@@ -21665,28 +22059,28 @@
         <v>0.055</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2057885600860258</v>
+        <v>-0.1898530429960935</v>
       </c>
       <c r="J2" t="n">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="K2" t="n">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02800317648336603</v>
+        <v>0.02455606805871635</v>
       </c>
       <c r="M2" t="n">
-        <v>6.820098110195819</v>
+        <v>6.787300345933303</v>
       </c>
       <c r="N2" t="n">
-        <v>82.70756725506536</v>
+        <v>81.87178464293886</v>
       </c>
       <c r="O2" t="n">
-        <v>9.094370085666482</v>
+        <v>9.048302859815141</v>
       </c>
       <c r="P2" t="n">
-        <v>344.8231821170054</v>
+        <v>344.6706463001125</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -21742,28 +22136,28 @@
         <v>0.0564</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1219654587687697</v>
+        <v>-0.1206011004615587</v>
       </c>
       <c r="J3" t="n">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="K3" t="n">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01068926370937329</v>
+        <v>0.01077807822444377</v>
       </c>
       <c r="M3" t="n">
-        <v>6.728290092948249</v>
+        <v>6.677755530760296</v>
       </c>
       <c r="N3" t="n">
-        <v>77.29804883903581</v>
+        <v>76.34473137140974</v>
       </c>
       <c r="O3" t="n">
-        <v>8.791930893668114</v>
+        <v>8.737547217120474</v>
       </c>
       <c r="P3" t="n">
-        <v>337.1695342674246</v>
+        <v>337.1565239076465</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -21819,28 +22213,28 @@
         <v>0.0669</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01749196512158331</v>
+        <v>-0.01793721992351526</v>
       </c>
       <c r="J4" t="n">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="K4" t="n">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002239935894479128</v>
+        <v>0.000241921346434637</v>
       </c>
       <c r="M4" t="n">
-        <v>6.3387860882066</v>
+        <v>6.314514908289494</v>
       </c>
       <c r="N4" t="n">
-        <v>75.25548867985681</v>
+        <v>74.47726366906821</v>
       </c>
       <c r="O4" t="n">
-        <v>8.674992142927669</v>
+        <v>8.630021070024581</v>
       </c>
       <c r="P4" t="n">
-        <v>332.7215635378653</v>
+        <v>332.7251903923253</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -21896,28 +22290,28 @@
         <v>0.0654</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01899710118113691</v>
+        <v>0.01972413496758379</v>
       </c>
       <c r="J5" t="n">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="K5" t="n">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002938101408530569</v>
+        <v>0.0003260240760830646</v>
       </c>
       <c r="M5" t="n">
-        <v>6.30723782072317</v>
+        <v>6.26267090733083</v>
       </c>
       <c r="N5" t="n">
-        <v>67.74773020004119</v>
+        <v>66.88765971792115</v>
       </c>
       <c r="O5" t="n">
-        <v>8.230900934894137</v>
+        <v>8.178487618008672</v>
       </c>
       <c r="P5" t="n">
-        <v>333.8436030443201</v>
+        <v>333.8362311109211</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -21973,28 +22367,28 @@
         <v>0.0579</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05228564637814562</v>
+        <v>0.05298014215214454</v>
       </c>
       <c r="J6" t="n">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="K6" t="n">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002108444597765824</v>
+        <v>0.002226575759390115</v>
       </c>
       <c r="M6" t="n">
-        <v>6.711988172892069</v>
+        <v>6.664487461115687</v>
       </c>
       <c r="N6" t="n">
-        <v>71.91652749018714</v>
+        <v>71.1008289401332</v>
       </c>
       <c r="O6" t="n">
-        <v>8.480361282998922</v>
+        <v>8.432130747333867</v>
       </c>
       <c r="P6" t="n">
-        <v>333.3460200412192</v>
+        <v>333.3394204191927</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -22050,28 +22444,28 @@
         <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07193845269441362</v>
+        <v>0.07166173074901495</v>
       </c>
       <c r="J7" t="n">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="K7" t="n">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="L7" t="n">
-        <v>0.004741553280135147</v>
+        <v>0.004858830503981171</v>
       </c>
       <c r="M7" t="n">
-        <v>6.19144328893766</v>
+        <v>6.120087087092339</v>
       </c>
       <c r="N7" t="n">
-        <v>60.66178847695993</v>
+        <v>59.74721731820369</v>
       </c>
       <c r="O7" t="n">
-        <v>7.78856780653285</v>
+        <v>7.729632418052212</v>
       </c>
       <c r="P7" t="n">
-        <v>336.4589224167495</v>
+        <v>336.461734802146</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -22127,28 +22521,28 @@
         <v>0.053</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1601937669425705</v>
+        <v>0.147067707247769</v>
       </c>
       <c r="J8" t="n">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="K8" t="n">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01779967416750405</v>
+        <v>0.01546695221189653</v>
       </c>
       <c r="M8" t="n">
-        <v>6.960456751778668</v>
+        <v>6.905935281564838</v>
       </c>
       <c r="N8" t="n">
-        <v>80.15230279149304</v>
+        <v>79.25813065234097</v>
       </c>
       <c r="O8" t="n">
-        <v>8.952781846526422</v>
+        <v>8.90270355860179</v>
       </c>
       <c r="P8" t="n">
-        <v>333.3379066579449</v>
+        <v>333.4623216493571</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -22204,28 +22598,28 @@
         <v>0.0513</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2386658993865258</v>
+        <v>0.2189460466849525</v>
       </c>
       <c r="J9" t="n">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="K9" t="n">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02708564143652159</v>
+        <v>0.02329966349592627</v>
       </c>
       <c r="M9" t="n">
-        <v>8.463738284626796</v>
+        <v>8.459601226738307</v>
       </c>
       <c r="N9" t="n">
-        <v>116.4138975750274</v>
+        <v>116.2943338703289</v>
       </c>
       <c r="O9" t="n">
-        <v>10.78952721740056</v>
+        <v>10.78398506445224</v>
       </c>
       <c r="P9" t="n">
-        <v>329.6841383209163</v>
+        <v>329.8708871190906</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -22281,28 +22675,28 @@
         <v>0.0525</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2322982324216696</v>
+        <v>0.2049676067804018</v>
       </c>
       <c r="J10" t="n">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="K10" t="n">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02247386993045208</v>
+        <v>0.01779140969654736</v>
       </c>
       <c r="M10" t="n">
-        <v>9.204618588655567</v>
+        <v>9.211623916863257</v>
       </c>
       <c r="N10" t="n">
-        <v>134.6851561204667</v>
+        <v>135.2742896829079</v>
       </c>
       <c r="O10" t="n">
-        <v>11.60539340653589</v>
+        <v>11.63074759776464</v>
       </c>
       <c r="P10" t="n">
-        <v>333.4103073506481</v>
+        <v>333.6682691435904</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -22358,28 +22752,28 @@
         <v>0.0608</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1531837583771564</v>
+        <v>0.133875550690065</v>
       </c>
       <c r="J11" t="n">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="K11" t="n">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01139128446709392</v>
+        <v>0.008896186244439219</v>
       </c>
       <c r="M11" t="n">
-        <v>8.309388546145188</v>
+        <v>8.294964303043258</v>
       </c>
       <c r="N11" t="n">
-        <v>114.417702718354</v>
+        <v>113.9725729827867</v>
       </c>
       <c r="O11" t="n">
-        <v>10.69662108884642</v>
+        <v>10.67579378701119</v>
       </c>
       <c r="P11" t="n">
-        <v>329.7582010771532</v>
+        <v>329.9434698186075</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -22435,28 +22829,28 @@
         <v>0.0392</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.05205786372232123</v>
+        <v>-0.07682712260930659</v>
       </c>
       <c r="J12" t="n">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="K12" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001102400061400943</v>
+        <v>0.002453180713995917</v>
       </c>
       <c r="M12" t="n">
-        <v>8.799593668924334</v>
+        <v>8.783882505474695</v>
       </c>
       <c r="N12" t="n">
-        <v>138.8687320840165</v>
+        <v>137.9931407704543</v>
       </c>
       <c r="O12" t="n">
-        <v>11.78425780794092</v>
+        <v>11.74704817264552</v>
       </c>
       <c r="P12" t="n">
-        <v>331.5065992826509</v>
+        <v>331.7412940664961</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -22512,28 +22906,28 @@
         <v>0.0288</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1001029249499263</v>
+        <v>0.03713188959408553</v>
       </c>
       <c r="J13" t="n">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="K13" t="n">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="L13" t="n">
-        <v>0.002339286828652143</v>
+        <v>0.0003230640040730037</v>
       </c>
       <c r="M13" t="n">
-        <v>11.78793231305989</v>
+        <v>11.90357935066261</v>
       </c>
       <c r="N13" t="n">
-        <v>243.4877871391654</v>
+        <v>247.6629769350414</v>
       </c>
       <c r="O13" t="n">
-        <v>15.60409520411759</v>
+        <v>15.73731161714228</v>
       </c>
       <c r="P13" t="n">
-        <v>329.1622597099189</v>
+        <v>329.7516147074556</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -22570,7 +22964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N377"/>
+  <dimension ref="A1:N384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47546,6 +47940,466 @@
         </is>
       </c>
     </row>
+    <row r="378">
+      <c r="A378" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-29 21:55:08+00:00</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>-41.18990247867227,175.9924450190461</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>-41.190540367338954,175.9921363755301</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>-41.19116723028303,175.99177152383155</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>-41.191843423228946,175.99163014345172</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>-41.19251226846025,175.9914404561143</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>-41.19319435564331,175.9913445012705</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>-41.19387685849871,175.99131403614587</t>
+        </is>
+      </c>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>-41.19455494860052,175.9913071226921</t>
+        </is>
+      </c>
+      <c r="J378" t="inlineStr">
+        <is>
+          <t>-41.19523960839186,175.99133250613036</t>
+        </is>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>-41.1959167395122,175.99147588708783</t>
+        </is>
+      </c>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>-41.19660903429459,175.99149341240678</t>
+        </is>
+      </c>
+      <c r="M378" t="inlineStr">
+        <is>
+          <t>-41.19727091586525,175.99168507228867</t>
+        </is>
+      </c>
+      <c r="N378" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-06 22:01:11+00:00</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>-41.189923325556315,175.99255135674747</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>-41.1905488237532,175.9921795107396</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>-41.19118211583939,175.99184745325414</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>-41.19183753760033,175.9915943200615</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>-41.1925244923366,175.9915488816172</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>-41.193198583379754,175.99142732387975</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>-41.193876857130476,175.99131439362637</t>
+        </is>
+      </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>-41.19455389671795,175.99136793280275</t>
+        </is>
+      </c>
+      <c r="J379" t="inlineStr">
+        <is>
+          <t>-41.195235061908605,175.99138428515727</t>
+        </is>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>-41.19593162028254,175.99138561532686</t>
+        </is>
+      </c>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>-41.19659108379875,175.99159567301027</t>
+        </is>
+      </c>
+      <c r="M379" t="inlineStr">
+        <is>
+          <t>-41.19725234025804,175.99178750573788</t>
+        </is>
+      </c>
+      <c r="N379" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-14 22:00:39+00:00</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>-41.18989899664495,175.99242725765734</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>-41.19053107430847,175.99208897294534</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>-41.19116494657034,175.99175987491532</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>-41.1918372442751,175.9915925347139</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>-41.19250413686771,175.99136832960318</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>-41.19319245719743,175.99130731053833</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>-41.193877102938586,175.99125016629463</t>
+        </is>
+      </c>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>-41.19455581751281,175.99125688882543</t>
+        </is>
+      </c>
+      <c r="J380" t="inlineStr">
+        <is>
+          <t>-41.195242463068055,175.99129999463133</t>
+        </is>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>-41.19592186029164,175.991444822769</t>
+        </is>
+      </c>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>-41.19661783632129,175.991443268706</t>
+        </is>
+      </c>
+      <c r="M380" t="inlineStr">
+        <is>
+          <t>-41.19730096445247,175.99151937098722</t>
+        </is>
+      </c>
+      <c r="N380" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-15 22:01:08+00:00</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>-41.189901596860416,175.9924405210319</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>-41.19053729227512,175.9921206900019</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>-41.19117423969065,175.9918072779355</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>-41.191827755826196,175.99153478260885</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>-41.19250541241468,175.9913796435647</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>-41.193193971651745,175.99133697882064</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>-41.19387712300295,175.99124492324702</t>
+        </is>
+      </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>-41.19455838428234,175.99110849042293</t>
+        </is>
+      </c>
+      <c r="J381" t="inlineStr">
+        <is>
+          <t>-41.19526103209894,175.99108851198267</t>
+        </is>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>-41.19594626195754,175.99129679354334</t>
+        </is>
+      </c>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>-41.196616279085966,175.99145214002982</t>
+        </is>
+      </c>
+      <c r="M381" t="inlineStr">
+        <is>
+          <t>-41.19733235762188,175.991346253507</t>
+        </is>
+      </c>
+      <c r="N381" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-16 21:55:04+00:00</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr"/>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>-41.19050636062881,175.99196291211703</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr"/>
+      <c r="E382" t="inlineStr"/>
+      <c r="F382" t="inlineStr"/>
+      <c r="G382" t="inlineStr"/>
+      <c r="H382" t="inlineStr"/>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
+      <c r="L382" t="inlineStr"/>
+      <c r="M382" t="inlineStr"/>
+      <c r="N382" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-08 22:00:47+00:00</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>-41.1899092618343,175.99247961915904</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>-41.19054029950669,175.9921360295258</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>-41.191199209670664,175.99193464718206</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>-41.1918496468065,175.99166802387933</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>-41.19251678599184,175.99148052640484</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>-41.193194628188735,175.99134984048064</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>-41.19387732180986,175.99119296941072</t>
+        </is>
+      </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>-41.19455864092589,175.9910936519051</t>
+        </is>
+      </c>
+      <c r="J383" t="inlineStr">
+        <is>
+          <t>-41.19526091315674,175.9910898666294</t>
+        </is>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>-41.195952898843345,175.9912565316052</t>
+        </is>
+      </c>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>-41.19662774148644,175.99138684044317</t>
+        </is>
+      </c>
+      <c r="M383" t="inlineStr">
+        <is>
+          <t>-41.19730716325782,175.99148518783105</t>
+        </is>
+      </c>
+      <c r="N383" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:01:09+00:00</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>-41.1899111837283,175.99248942252555</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>-41.19054210836677,175.9921452563077</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>-41.191192886166895,175.9919023915751</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>-41.19185206354068,175.9916827335963</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>-41.19251163068994,175.99143479913246</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>-41.19319347400677,175.99132722989864</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>-41.19387718729858,175.99122812166254</t>
+        </is>
+      </c>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>-41.19455765646656,175.9911505703933</t>
+        </is>
+      </c>
+      <c r="J384" t="inlineStr">
+        <is>
+          <t>-41.195254097627156,175.99116748919494</t>
+        </is>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>-41.19594866093862,175.991282240399</t>
+        </is>
+      </c>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>-41.19661118823167,175.9914811417935</t>
+        </is>
+      </c>
+      <c r="M384" t="inlineStr">
+        <is>
+          <t>-41.197295059818465,175.99155193188537</t>
+        </is>
+      </c>
+      <c r="N384" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0346/nzd0346.xlsx
+++ b/data/nzd0346/nzd0346.xlsx
@@ -21904,7 +21904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21995,35 +21995,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -22082,27 +22087,28 @@
       <c r="P2" t="n">
         <v>344.6706463001125</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.98849857331243 -41.189128721256466, 175.99889442761202 -41.191166643308854)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.9884985733124</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-41.18912872125647</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.998894427612</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-41.19116664330885</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.9936965004622</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-41.19014768228266</v>
       </c>
     </row>
@@ -22159,27 +22165,28 @@
       <c r="P3" t="n">
         <v>337.1565239076465</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.9882527492065 -41.189778928215986, 175.99864866906137 -41.191816855453496)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.9882527492065</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-41.18977892821599</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.9986486690614</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-41.1918168554535</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.9934507091339</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-41.19079789183474</v>
       </c>
     </row>
@@ -22236,27 +22243,28 @@
       <c r="P4" t="n">
         <v>332.7251903923253</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.9880069251001 -41.19042912871804, 175.9984029105115 -41.19246706114092)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.9880069251001</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-41.19042912871804</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.9984029105115</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-41.19246706114092</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.9932049178058</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-41.19144809492948</v>
       </c>
     </row>
@@ -22313,27 +22321,28 @@
       <c r="P5" t="n">
         <v>333.8362311109211</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (175.98772193501108 -41.19120124869093, 175.99821726025147 -41.19292544845911)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>175.9877219350111</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-41.19120124869093</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>175.9982172602515</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-41.19292544845911</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>175.9929695976313</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-41.19206334857502</v>
       </c>
     </row>
@@ -22390,27 +22399,28 @@
       <c r="P6" t="n">
         <v>333.3394204191927</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (175.98749532334216 -41.19206742160647, 175.9981187477979 -41.19326497752494)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>175.9874953233422</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-41.19206742160647</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>175.9981187477979</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-41.19326497752494</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>175.99280703557</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-41.19266619956571</v>
       </c>
     </row>
@@ -22467,27 +22477,28 @@
       <c r="P7" t="n">
         <v>336.461734802146</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (175.98732789970956 -41.19298925301219, 175.99804486076656 -41.19353618489928)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>175.9873278997096</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-41.19298925301219</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>175.9980448607666</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-41.19353618489928</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>175.9926863802381</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-41.19326271895574</v>
       </c>
     </row>
@@ -22544,27 +22555,28 @@
       <c r="P8" t="n">
         <v>333.4623216493571</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (175.9872853448889 -41.19389220748647, 175.99802674652383 -41.19385097015124)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>175.9872853448889</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-41.19389220748647</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>175.9980267465238</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-41.19385097015124</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>175.9926560457064</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-41.19387158881885</v>
       </c>
     </row>
@@ -22621,27 +22633,28 @@
       <c r="P9" t="n">
         <v>329.8708871190906</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (175.98728611504788 -41.19462443191239, 175.99802490594368 -41.194438551116626)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>175.9872861150479</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-41.19462443191239</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>175.9980249059437</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-41.19443855111663</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>175.9926555104958</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-41.19453149151451</v>
       </c>
     </row>
@@ -22698,27 +22711,28 @@
       <c r="P10" t="n">
         <v>333.6682691435904</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (175.98731172089103 -41.19559258268617, 175.99798137762542 -41.19465560602057)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>175.987311720891</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-41.19559258268617</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>175.9979813776254</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-41.19465560602057</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>175.9926465492582</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-41.19512409435337</v>
       </c>
     </row>
@@ -22775,27 +22789,28 @@
       <c r="P11" t="n">
         <v>329.9434698186075</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (175.98754458379884 -41.19656472053358, 175.99803871344915 -41.194834689996625)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>175.9875445837988</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-41.19656472053358</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>175.9980387134491</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-41.19483468999663</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>175.992791648624</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-41.1956997052651</v>
       </c>
     </row>
@@ -22852,27 +22867,28 @@
       <c r="P12" t="n">
         <v>331.7412940664961</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (175.98773385434842 -41.19726890567809, 175.99819616324896 -41.1954322439374)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>175.9877338543484</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-41.19726890567809</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>175.998196163249</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-41.1954322439374</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>175.9929650087987</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-41.19635057480774</v>
       </c>
     </row>
@@ -22929,27 +22945,28 @@
       <c r="P13" t="n">
         <v>329.7516147074556</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (175.98793056471783 -41.19795170065811, 175.9983749131979 -41.1960575472196)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>175.9879305647178</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-41.19795170065811</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>175.9983749131979</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-41.1960575472196</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>175.9931527389579</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-41.19700462393885</v>
       </c>
     </row>

--- a/data/nzd0346/nzd0346.xlsx
+++ b/data/nzd0346/nzd0346.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N384"/>
+  <dimension ref="A1:N385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17782,6 +17782,54 @@
         </is>
       </c>
     </row>
+    <row r="385">
+      <c r="A385" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-13 22:00:55+00:00</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>340.39</v>
+      </c>
+      <c r="C385" t="n">
+        <v>333.21</v>
+      </c>
+      <c r="D385" t="n">
+        <v>331.0133333333333</v>
+      </c>
+      <c r="E385" t="n">
+        <v>331.8933333333333</v>
+      </c>
+      <c r="F385" t="n">
+        <v>328.08</v>
+      </c>
+      <c r="G385" t="n">
+        <v>337.7845454545454</v>
+      </c>
+      <c r="H385" t="n">
+        <v>330.01</v>
+      </c>
+      <c r="I385" t="n">
+        <v>328.1444444444444</v>
+      </c>
+      <c r="J385" t="n">
+        <v>332.9244444444445</v>
+      </c>
+      <c r="K385" t="n">
+        <v>326.2645454545454</v>
+      </c>
+      <c r="L385" t="n">
+        <v>317.9671428571428</v>
+      </c>
+      <c r="M385" t="n">
+        <v>315.36</v>
+      </c>
+      <c r="N385" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17793,7 +17841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B409"/>
+  <dimension ref="A1:B410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21891,6 +21939,16 @@
       </c>
       <c r="B409" t="n">
         <v>-0.43</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>2025-04-13 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>-0.25</v>
       </c>
     </row>
   </sheetData>
@@ -22064,28 +22122,28 @@
         <v>0.055</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1898530429960935</v>
+        <v>-0.1895290723456709</v>
       </c>
       <c r="J2" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K2" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02455606805871635</v>
+        <v>0.02461219502250578</v>
       </c>
       <c r="M2" t="n">
-        <v>6.787300345933303</v>
+        <v>6.768819739044258</v>
       </c>
       <c r="N2" t="n">
-        <v>81.87178464293886</v>
+        <v>81.62843144344802</v>
       </c>
       <c r="O2" t="n">
-        <v>9.048302859815141</v>
+        <v>9.034845402299258</v>
       </c>
       <c r="P2" t="n">
-        <v>344.6706463001125</v>
+        <v>344.6675002590003</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22142,28 +22200,28 @@
         <v>0.0564</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1206011004615587</v>
+        <v>-0.1210635455306081</v>
       </c>
       <c r="J3" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K3" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01077807822444377</v>
+        <v>0.01092101793574818</v>
       </c>
       <c r="M3" t="n">
-        <v>6.677755530760296</v>
+        <v>6.660274585732764</v>
       </c>
       <c r="N3" t="n">
-        <v>76.34473137140974</v>
+        <v>76.11830223191541</v>
       </c>
       <c r="O3" t="n">
-        <v>8.737547217120474</v>
+        <v>8.724580347037639</v>
       </c>
       <c r="P3" t="n">
-        <v>337.1565239076465</v>
+        <v>337.1610329895873</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22220,28 +22278,28 @@
         <v>0.0669</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01793721992351526</v>
+        <v>-0.01862405361214606</v>
       </c>
       <c r="J4" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K4" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000241921346434637</v>
+        <v>0.0002622904563259754</v>
       </c>
       <c r="M4" t="n">
-        <v>6.314514908289494</v>
+        <v>6.29889868626454</v>
       </c>
       <c r="N4" t="n">
-        <v>74.47726366906821</v>
+        <v>74.26214612752125</v>
       </c>
       <c r="O4" t="n">
-        <v>8.630021070024581</v>
+        <v>8.617548730788892</v>
       </c>
       <c r="P4" t="n">
-        <v>332.7251903923253</v>
+        <v>332.7319517383806</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22298,28 +22356,28 @@
         <v>0.0654</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01972413496758379</v>
+        <v>0.01840127413361147</v>
       </c>
       <c r="J5" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K5" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0003260240760830646</v>
+        <v>0.0002853164722691481</v>
       </c>
       <c r="M5" t="n">
-        <v>6.26267090733083</v>
+        <v>6.250216964927763</v>
       </c>
       <c r="N5" t="n">
-        <v>66.88765971792115</v>
+        <v>66.71102109512644</v>
       </c>
       <c r="O5" t="n">
-        <v>8.178487618008672</v>
+        <v>8.167681500592836</v>
       </c>
       <c r="P5" t="n">
-        <v>333.8362311109211</v>
+        <v>333.8492295866759</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22376,28 +22434,28 @@
         <v>0.0579</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05298014215214454</v>
+        <v>0.04929055079309654</v>
       </c>
       <c r="J6" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K6" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002226575759390115</v>
+        <v>0.001935660973137687</v>
       </c>
       <c r="M6" t="n">
-        <v>6.664487461115687</v>
+        <v>6.662133594500502</v>
       </c>
       <c r="N6" t="n">
-        <v>71.1008289401332</v>
+        <v>71.01772802304755</v>
       </c>
       <c r="O6" t="n">
-        <v>8.432130747333867</v>
+        <v>8.427201672147614</v>
       </c>
       <c r="P6" t="n">
-        <v>333.3394204191927</v>
+        <v>333.3754312625736</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22454,28 +22512,28 @@
         <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07166173074901495</v>
+        <v>0.07137352397720179</v>
       </c>
       <c r="J7" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K7" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L7" t="n">
-        <v>0.004858830503981171</v>
+        <v>0.004848511451190585</v>
       </c>
       <c r="M7" t="n">
-        <v>6.120087087092339</v>
+        <v>6.10307091410986</v>
       </c>
       <c r="N7" t="n">
-        <v>59.74721731820369</v>
+        <v>59.56859100566506</v>
       </c>
       <c r="O7" t="n">
-        <v>7.729632418052212</v>
+        <v>7.718069124182878</v>
       </c>
       <c r="P7" t="n">
-        <v>336.461734802146</v>
+        <v>336.4645317602728</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -22532,28 +22590,28 @@
         <v>0.053</v>
       </c>
       <c r="I8" t="n">
-        <v>0.147067707247769</v>
+        <v>0.1431426952521026</v>
       </c>
       <c r="J8" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K8" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01546695221189653</v>
+        <v>0.0147210942728131</v>
       </c>
       <c r="M8" t="n">
-        <v>6.905935281564838</v>
+        <v>6.903668567663302</v>
       </c>
       <c r="N8" t="n">
-        <v>79.25813065234097</v>
+        <v>79.17755304968183</v>
       </c>
       <c r="O8" t="n">
-        <v>8.90270355860179</v>
+        <v>8.898176950908644</v>
       </c>
       <c r="P8" t="n">
-        <v>333.4623216493571</v>
+        <v>333.4999166780547</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -22610,28 +22668,28 @@
         <v>0.0513</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2189460466849525</v>
+        <v>0.2149181267078631</v>
       </c>
       <c r="J9" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K9" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02329966349592627</v>
+        <v>0.02256894728949743</v>
       </c>
       <c r="M9" t="n">
-        <v>8.459601226738307</v>
+        <v>8.453556921736249</v>
       </c>
       <c r="N9" t="n">
-        <v>116.2943338703289</v>
+        <v>116.1074416012094</v>
       </c>
       <c r="O9" t="n">
-        <v>10.78398506445224</v>
+        <v>10.77531631095855</v>
       </c>
       <c r="P9" t="n">
-        <v>329.8708871190906</v>
+        <v>329.9093520015257</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -22688,28 +22746,28 @@
         <v>0.0525</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2049676067804018</v>
+        <v>0.2017345143995394</v>
       </c>
       <c r="J10" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K10" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01779140969654736</v>
+        <v>0.01732875654876564</v>
       </c>
       <c r="M10" t="n">
-        <v>9.211623916863257</v>
+        <v>9.20073840375799</v>
       </c>
       <c r="N10" t="n">
-        <v>135.2742896829079</v>
+        <v>134.9798421493251</v>
       </c>
       <c r="O10" t="n">
-        <v>11.63074759776464</v>
+        <v>11.61808255046094</v>
       </c>
       <c r="P10" t="n">
-        <v>333.6682691435904</v>
+        <v>333.6990858278029</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -22766,28 +22824,28 @@
         <v>0.0608</v>
       </c>
       <c r="I11" t="n">
-        <v>0.133875550690065</v>
+        <v>0.1301519784672401</v>
       </c>
       <c r="J11" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K11" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L11" t="n">
-        <v>0.008896186244439219</v>
+        <v>0.008448358068845141</v>
       </c>
       <c r="M11" t="n">
-        <v>8.294964303043258</v>
+        <v>8.289989106688244</v>
       </c>
       <c r="N11" t="n">
-        <v>113.9725729827867</v>
+        <v>113.7919342149291</v>
       </c>
       <c r="O11" t="n">
-        <v>10.67579378701119</v>
+        <v>10.66733022901837</v>
       </c>
       <c r="P11" t="n">
-        <v>329.9434698186075</v>
+        <v>329.9795279595798</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -22844,28 +22902,28 @@
         <v>0.0392</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.07682712260930659</v>
+        <v>-0.08312285605308393</v>
       </c>
       <c r="J12" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K12" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002453180713995917</v>
+        <v>0.002878648395297168</v>
       </c>
       <c r="M12" t="n">
-        <v>8.783882505474695</v>
+        <v>8.789188782880293</v>
       </c>
       <c r="N12" t="n">
-        <v>137.9931407704543</v>
+        <v>137.9934274022371</v>
       </c>
       <c r="O12" t="n">
-        <v>11.74704817264552</v>
+        <v>11.74706037280124</v>
       </c>
       <c r="P12" t="n">
-        <v>331.7412940664961</v>
+        <v>331.8017014632624</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -22922,28 +22980,28 @@
         <v>0.0288</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03713188959408553</v>
+        <v>0.02820821614021131</v>
       </c>
       <c r="J13" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K13" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0003230640040730037</v>
+        <v>0.0001870967251073052</v>
       </c>
       <c r="M13" t="n">
-        <v>11.90357935066261</v>
+        <v>11.91325294754704</v>
       </c>
       <c r="N13" t="n">
-        <v>247.6629769350414</v>
+        <v>247.6177803437096</v>
       </c>
       <c r="O13" t="n">
-        <v>15.73731161714228</v>
+        <v>15.73587558236623</v>
       </c>
       <c r="P13" t="n">
-        <v>329.7516147074556</v>
+        <v>329.8361794097201</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -22981,7 +23039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N384"/>
+  <dimension ref="A1:N385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48417,6 +48475,78 @@
         </is>
       </c>
     </row>
+    <row r="385">
+      <c r="A385" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-13 22:00:55+00:00</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>-41.18989843138051,175.9924243743152</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>-41.19053240834571,175.9920957776952</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>-41.191177646409386,175.9918246552014</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>-41.1918362240132,175.99158632480942</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>-41.1925034060851,175.99136184764623</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>-41.19319431923034,175.99134378793474</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>-41.19387722696913,175.99121775472733</t>
+        </is>
+      </c>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>-41.19455688170019,175.99119536391746</t>
+        </is>
+      </c>
+      <c r="J385" t="inlineStr">
+        <is>
+          <t>-41.19524663535958,175.99125247680735</t>
+        </is>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>-41.19593861835558,175.99134316249942</t>
+        </is>
+      </c>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>-41.19662110505789,175.99142464721552</t>
+        </is>
+      </c>
+      <c r="M385" t="inlineStr">
+        <is>
+          <t>-41.19728909213651,175.99158484040228</t>
+        </is>
+      </c>
+      <c r="N385" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0346/nzd0346.xlsx
+++ b/data/nzd0346/nzd0346.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N385"/>
+  <dimension ref="A1:N388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17830,6 +17830,148 @@
         </is>
       </c>
     </row>
+    <row r="386">
+      <c r="A386" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-07 22:00:25+00:00</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>337.62</v>
+      </c>
+      <c r="C386" t="n">
+        <v>328.8</v>
+      </c>
+      <c r="D386" t="n">
+        <v>326.7966666666667</v>
+      </c>
+      <c r="E386" t="n">
+        <v>328.8566666666667</v>
+      </c>
+      <c r="F386" t="n">
+        <v>326.29</v>
+      </c>
+      <c r="G386" t="n">
+        <v>331.7518181818182</v>
+      </c>
+      <c r="H386" t="n">
+        <v>333.81</v>
+      </c>
+      <c r="I386" t="n">
+        <v>335.8688888888889</v>
+      </c>
+      <c r="J386" t="n">
+        <v>338.9888888888889</v>
+      </c>
+      <c r="K386" t="n">
+        <v>328.3418181818182</v>
+      </c>
+      <c r="L386" t="n">
+        <v>332.0371428571428</v>
+      </c>
+      <c r="M386" t="inlineStr"/>
+      <c r="N386" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:00:35+00:00</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>338.67</v>
+      </c>
+      <c r="C387" t="n">
+        <v>330.14</v>
+      </c>
+      <c r="D387" t="n">
+        <v>324.6266666666667</v>
+      </c>
+      <c r="E387" t="n">
+        <v>327.7266666666667</v>
+      </c>
+      <c r="F387" t="n">
+        <v>333.58</v>
+      </c>
+      <c r="G387" t="n">
+        <v>334.3836363636364</v>
+      </c>
+      <c r="H387" t="n">
+        <v>338.12</v>
+      </c>
+      <c r="I387" t="n">
+        <v>339.1088888888889</v>
+      </c>
+      <c r="J387" t="n">
+        <v>345.5788888888889</v>
+      </c>
+      <c r="K387" t="n">
+        <v>332.2936363636364</v>
+      </c>
+      <c r="L387" t="n">
+        <v>339.9942857142857</v>
+      </c>
+      <c r="M387" t="n">
+        <v>303.79</v>
+      </c>
+      <c r="N387" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:54:17+00:00</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>347.74</v>
+      </c>
+      <c r="C388" t="n">
+        <v>336.53</v>
+      </c>
+      <c r="D388" t="n">
+        <v>332.2266666666667</v>
+      </c>
+      <c r="E388" t="n">
+        <v>327.5266666666667</v>
+      </c>
+      <c r="F388" t="n">
+        <v>334.14</v>
+      </c>
+      <c r="G388" t="n">
+        <v>340.3109090909091</v>
+      </c>
+      <c r="H388" t="n">
+        <v>332.46</v>
+      </c>
+      <c r="I388" t="n">
+        <v>343.4622222222222</v>
+      </c>
+      <c r="J388" t="n">
+        <v>345.1622222222222</v>
+      </c>
+      <c r="K388" t="n">
+        <v>333.8809090909091</v>
+      </c>
+      <c r="L388" t="n">
+        <v>338.44</v>
+      </c>
+      <c r="M388" t="n">
+        <v>301.42</v>
+      </c>
+      <c r="N388" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17841,7 +17983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B410"/>
+  <dimension ref="A1:B413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21949,6 +22091,36 @@
       </c>
       <c r="B410" t="n">
         <v>-0.25</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>2025-05-07 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>
@@ -22122,28 +22294,28 @@
         <v>0.055</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1895290723456709</v>
+        <v>-0.1870190297207676</v>
       </c>
       <c r="J2" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K2" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02461219502250578</v>
+        <v>0.02432537953641778</v>
       </c>
       <c r="M2" t="n">
-        <v>6.768819739044258</v>
+        <v>6.742193785695814</v>
       </c>
       <c r="N2" t="n">
-        <v>81.62843144344802</v>
+        <v>81.10819348764471</v>
       </c>
       <c r="O2" t="n">
-        <v>9.034845402299258</v>
+        <v>9.006008743480361</v>
       </c>
       <c r="P2" t="n">
-        <v>344.6675002590003</v>
+        <v>344.6429922569679</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22200,28 +22372,28 @@
         <v>0.0564</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1210635455306081</v>
+        <v>-0.124615203058919</v>
       </c>
       <c r="J3" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K3" t="n">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01092101793574818</v>
+        <v>0.01173686075050595</v>
       </c>
       <c r="M3" t="n">
-        <v>6.660274585732764</v>
+        <v>6.635079257493747</v>
       </c>
       <c r="N3" t="n">
-        <v>76.11830223191541</v>
+        <v>75.58477406281763</v>
       </c>
       <c r="O3" t="n">
-        <v>8.724580347037639</v>
+        <v>8.69395042905224</v>
       </c>
       <c r="P3" t="n">
-        <v>337.1610329895873</v>
+        <v>337.1957923417891</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22278,28 +22450,28 @@
         <v>0.0669</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01862405361214606</v>
+        <v>-0.02568596023431842</v>
       </c>
       <c r="J4" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K4" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002622904563259754</v>
+        <v>0.0005056969042231962</v>
       </c>
       <c r="M4" t="n">
-        <v>6.29889868626454</v>
+        <v>6.274573998605247</v>
       </c>
       <c r="N4" t="n">
-        <v>74.26214612752125</v>
+        <v>73.86349954360279</v>
       </c>
       <c r="O4" t="n">
-        <v>8.617548730788892</v>
+        <v>8.594387677060116</v>
       </c>
       <c r="P4" t="n">
-        <v>332.7319517383806</v>
+        <v>332.8017534405558</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22356,28 +22528,28 @@
         <v>0.0654</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01840127413361147</v>
+        <v>0.008394665578060191</v>
       </c>
       <c r="J5" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K5" t="n">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002853164722691481</v>
+        <v>6.01037844082386e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>6.250216964927763</v>
+        <v>6.239888631729458</v>
       </c>
       <c r="N5" t="n">
-        <v>66.71102109512644</v>
+        <v>66.47095154439961</v>
       </c>
       <c r="O5" t="n">
-        <v>8.167681500592836</v>
+        <v>8.152971945517757</v>
       </c>
       <c r="P5" t="n">
-        <v>333.8492295866759</v>
+        <v>333.9479732715386</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22434,28 +22606,28 @@
         <v>0.0579</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04929055079309654</v>
+        <v>0.0438682773717974</v>
       </c>
       <c r="J6" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K6" t="n">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001935660973137687</v>
+        <v>0.001556331048130133</v>
       </c>
       <c r="M6" t="n">
-        <v>6.662133594500502</v>
+        <v>6.628877986512993</v>
       </c>
       <c r="N6" t="n">
-        <v>71.01772802304755</v>
+        <v>70.59292757307405</v>
       </c>
       <c r="O6" t="n">
-        <v>8.427201672147614</v>
+        <v>8.401959745980342</v>
       </c>
       <c r="P6" t="n">
-        <v>333.3754312625736</v>
+        <v>333.4285435839548</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22512,28 +22684,28 @@
         <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07137352397720179</v>
+        <v>0.06674817191127756</v>
       </c>
       <c r="J7" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K7" t="n">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L7" t="n">
-        <v>0.004848511451190585</v>
+        <v>0.004304983704851439</v>
       </c>
       <c r="M7" t="n">
-        <v>6.10307091410986</v>
+        <v>6.082778687415908</v>
       </c>
       <c r="N7" t="n">
-        <v>59.56859100566506</v>
+        <v>59.22024882027104</v>
       </c>
       <c r="O7" t="n">
-        <v>7.718069124182878</v>
+        <v>7.6954693697182</v>
       </c>
       <c r="P7" t="n">
-        <v>336.4645317602728</v>
+        <v>336.509582369614</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -22590,28 +22762,28 @@
         <v>0.053</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1431426952521026</v>
+        <v>0.1393223579061811</v>
       </c>
       <c r="J8" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K8" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0147210942728131</v>
+        <v>0.0141801215938584</v>
       </c>
       <c r="M8" t="n">
-        <v>6.903668567663302</v>
+        <v>6.866462808234336</v>
       </c>
       <c r="N8" t="n">
-        <v>79.17755304968183</v>
+        <v>78.58635092379863</v>
       </c>
       <c r="O8" t="n">
-        <v>8.898176950908644</v>
+        <v>8.864894298512455</v>
       </c>
       <c r="P8" t="n">
-        <v>333.4999166780547</v>
+        <v>333.5366605117252</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -22668,28 +22840,28 @@
         <v>0.0513</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2149181267078631</v>
+        <v>0.2214372443041492</v>
       </c>
       <c r="J9" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K9" t="n">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02256894728949743</v>
+        <v>0.02429217883081591</v>
       </c>
       <c r="M9" t="n">
-        <v>8.453556921736249</v>
+        <v>8.417907994648434</v>
       </c>
       <c r="N9" t="n">
-        <v>116.1074416012094</v>
+        <v>115.3058849128539</v>
       </c>
       <c r="O9" t="n">
-        <v>10.77531631095855</v>
+        <v>10.73805778122161</v>
       </c>
       <c r="P9" t="n">
-        <v>329.9093520015257</v>
+        <v>329.8468056186289</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -22746,28 +22918,28 @@
         <v>0.0525</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2017345143995394</v>
+        <v>0.2086360338043978</v>
       </c>
       <c r="J10" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K10" t="n">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01732875654876564</v>
+        <v>0.01879326070013188</v>
       </c>
       <c r="M10" t="n">
-        <v>9.20073840375799</v>
+        <v>9.160186630995122</v>
       </c>
       <c r="N10" t="n">
-        <v>134.9798421493251</v>
+        <v>134.0342426887814</v>
       </c>
       <c r="O10" t="n">
-        <v>11.61808255046094</v>
+        <v>11.57731586719398</v>
       </c>
       <c r="P10" t="n">
-        <v>333.6990858278029</v>
+        <v>333.6329886171841</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -22824,28 +22996,28 @@
         <v>0.0608</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1301519784672401</v>
+        <v>0.1273389455713253</v>
       </c>
       <c r="J11" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K11" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="L11" t="n">
-        <v>0.008448358068845141</v>
+        <v>0.008218846411201519</v>
       </c>
       <c r="M11" t="n">
-        <v>8.289989106688244</v>
+        <v>8.237251559909362</v>
       </c>
       <c r="N11" t="n">
-        <v>113.7919342149291</v>
+        <v>112.9060615960723</v>
       </c>
       <c r="O11" t="n">
-        <v>10.66733022901837</v>
+        <v>10.62572640321932</v>
       </c>
       <c r="P11" t="n">
-        <v>329.9795279595798</v>
+        <v>330.0068646177568</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -22902,28 +23074,28 @@
         <v>0.0392</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.08312285605308393</v>
+        <v>-0.07186014749778823</v>
       </c>
       <c r="J12" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K12" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002878648395297168</v>
+        <v>0.002181476137266714</v>
       </c>
       <c r="M12" t="n">
-        <v>8.789188782880293</v>
+        <v>8.779693703513848</v>
       </c>
       <c r="N12" t="n">
-        <v>137.9934274022371</v>
+        <v>137.340922074118</v>
       </c>
       <c r="O12" t="n">
-        <v>11.74706037280124</v>
+        <v>11.71925433097678</v>
       </c>
       <c r="P12" t="n">
-        <v>331.8017014632624</v>
+        <v>331.6931472361861</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -22980,28 +23152,28 @@
         <v>0.0288</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02820821614021131</v>
+        <v>-0.003964520920944807</v>
       </c>
       <c r="J13" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K13" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0001870967251073052</v>
+        <v>3.671852767506145e-06</v>
       </c>
       <c r="M13" t="n">
-        <v>11.91325294754704</v>
+        <v>12.00613373136151</v>
       </c>
       <c r="N13" t="n">
-        <v>247.6177803437096</v>
+        <v>250.862756327881</v>
       </c>
       <c r="O13" t="n">
-        <v>15.73587558236623</v>
+        <v>15.83864755362278</v>
       </c>
       <c r="P13" t="n">
-        <v>329.8361794097201</v>
+        <v>330.1424802752968</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23039,7 +23211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N385"/>
+  <dimension ref="A1:N388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48547,6 +48719,218 @@
         </is>
       </c>
     </row>
+    <row r="386">
+      <c r="A386" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-07 22:00:25+00:00</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>-41.18989216824556,175.99239242688705</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>-41.19052243697265,175.99204491507962</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>-41.19116811211235,175.9917760219281</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>-41.19183041489047,175.99155096716905</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>-41.19250102771727,175.99134075182354</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>-41.193190658048806,175.99127206526865</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>-41.19387705368861,175.99126303559322</t>
+        </is>
+      </c>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>-41.194555289986056,175.99128738654085</t>
+        </is>
+      </c>
+      <c r="J386" t="inlineStr">
+        <is>
+          <t>-41.19524033245502,175.9913242598888</t>
+        </is>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>-41.195934631671626,175.99136734717047</t>
+        </is>
+      </c>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>-41.196592437293106,175.99158796242693</t>
+        </is>
+      </c>
+      <c r="M386" t="inlineStr"/>
+      <c r="N386" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:00:35+00:00</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>-41.189894542359156,175.99240453692232</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>-41.1905254668254,175.9920603699318</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>-41.19116320552124,175.99175099405892</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>-41.191828253205294,175.99153780993657</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>-41.192510713894634,175.99142666722128</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>-41.19319225526961,175.99130335476744</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>-41.193876857130476,175.99131439362637</t>
+        </is>
+      </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>-41.194554622323444,175.99132598521052</t>
+        </is>
+      </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>-41.195233483279225,175.99140226380135</t>
+        </is>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>-41.19592704736239,175.99141335624918</t>
+        </is>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>-41.1965762244349,175.99168032358526</t>
+        </is>
+      </c>
+      <c r="M387" t="inlineStr">
+        <is>
+          <t>-41.197313404078905,175.99145077291757</t>
+        </is>
+      </c>
+      <c r="N387" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:54:17+00:00</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>-41.189915050124156,175.99250914459392</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>-41.19053991512382,175.9921340688347</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>-41.19118038987118,175.99183864928403</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>-41.191827870606,175.99153548122294</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>-41.192511457960435,175.99143326703324</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>-41.19319585243328,175.99137382369418</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>-41.19387711525085,175.99124694896997</t>
+        </is>
+      </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>-41.194553725217304,175.99137784720662</t>
+        </is>
+      </c>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>-41.195233916334374,175.99139733183983</t>
+        </is>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>-41.19592400107161,175.99143183608288</t>
+        </is>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>-41.19657939133284,175.9916622824868</t>
+        </is>
+      </c>
+      <c r="M388" t="inlineStr">
+        <is>
+          <t>-41.19731838412083,175.99142331050675</t>
+        </is>
+      </c>
+      <c r="N388" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0346/nzd0346.xlsx
+++ b/data/nzd0346/nzd0346.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N388"/>
+  <dimension ref="A1:N390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17972,6 +17972,86 @@
         </is>
       </c>
     </row>
+    <row r="389">
+      <c r="A389" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-23 22:00:06+00:00</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>342.32</v>
+      </c>
+      <c r="C389" t="n">
+        <v>331.76</v>
+      </c>
+      <c r="D389" t="n">
+        <v>334.8433333333333</v>
+      </c>
+      <c r="E389" t="n">
+        <v>333.7833333333333</v>
+      </c>
+      <c r="F389" t="n">
+        <v>331.4</v>
+      </c>
+      <c r="G389" t="n">
+        <v>334.4072727272728</v>
+      </c>
+      <c r="H389" t="n">
+        <v>336.95</v>
+      </c>
+      <c r="I389" t="n">
+        <v>339.4111111111111</v>
+      </c>
+      <c r="J389" t="n">
+        <v>345.3411111111111</v>
+      </c>
+      <c r="K389" t="n">
+        <v>340.0572727272727</v>
+      </c>
+      <c r="L389" t="n">
+        <v>334.6414285714285</v>
+      </c>
+      <c r="M389" t="n">
+        <v>338.31</v>
+      </c>
+      <c r="N389" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:54:21+00:00</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr"/>
+      <c r="C390" t="inlineStr"/>
+      <c r="D390" t="inlineStr"/>
+      <c r="E390" t="inlineStr"/>
+      <c r="F390" t="n">
+        <v>316.04</v>
+      </c>
+      <c r="G390" t="inlineStr"/>
+      <c r="H390" t="n">
+        <v>343.98</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="n">
+        <v>363.9572727272728</v>
+      </c>
+      <c r="L390" t="inlineStr"/>
+      <c r="M390" t="n">
+        <v>336.12</v>
+      </c>
+      <c r="N390" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17983,7 +18063,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B413"/>
+  <dimension ref="A1:B415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22121,6 +22201,26 @@
       </c>
       <c r="B413" t="n">
         <v>0.28</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>2025-05-23 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>-0.51</v>
       </c>
     </row>
   </sheetData>
@@ -22294,28 +22394,28 @@
         <v>0.055</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1870190297207676</v>
+        <v>-0.185686637141871</v>
       </c>
       <c r="J2" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K2" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02432537953641778</v>
+        <v>0.02411496076358599</v>
       </c>
       <c r="M2" t="n">
-        <v>6.742193785695814</v>
+        <v>6.72971615239812</v>
       </c>
       <c r="N2" t="n">
-        <v>81.10819348764471</v>
+        <v>80.88719033441137</v>
       </c>
       <c r="O2" t="n">
-        <v>9.006008743480361</v>
+        <v>8.993730612733037</v>
       </c>
       <c r="P2" t="n">
-        <v>344.6429922569679</v>
+        <v>344.6299778791202</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22372,28 +22472,28 @@
         <v>0.0564</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.124615203058919</v>
+        <v>-0.1257952420497696</v>
       </c>
       <c r="J3" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K3" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01173686075050595</v>
+        <v>0.01202099304168025</v>
       </c>
       <c r="M3" t="n">
-        <v>6.635079257493747</v>
+        <v>6.621827487732839</v>
       </c>
       <c r="N3" t="n">
-        <v>75.58477406281763</v>
+        <v>75.3756504470232</v>
       </c>
       <c r="O3" t="n">
-        <v>8.69395042905224</v>
+        <v>8.681915137054911</v>
       </c>
       <c r="P3" t="n">
-        <v>337.1957923417891</v>
+        <v>337.2073664422365</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22450,28 +22550,28 @@
         <v>0.0669</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.02568596023431842</v>
+        <v>-0.02423731780437351</v>
       </c>
       <c r="J4" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K4" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0005056969042231962</v>
+        <v>0.0004526984218580221</v>
       </c>
       <c r="M4" t="n">
-        <v>6.274573998605247</v>
+        <v>6.26557696907228</v>
       </c>
       <c r="N4" t="n">
-        <v>73.86349954360279</v>
+        <v>73.66928551831109</v>
       </c>
       <c r="O4" t="n">
-        <v>8.594387677060116</v>
+        <v>8.583081353355047</v>
       </c>
       <c r="P4" t="n">
-        <v>332.8017534405558</v>
+        <v>332.7874113939314</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22528,28 +22628,28 @@
         <v>0.0654</v>
       </c>
       <c r="I5" t="n">
-        <v>0.008394665578060191</v>
+        <v>0.008193655607836921</v>
       </c>
       <c r="J5" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K5" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L5" t="n">
-        <v>6.01037844082386e-05</v>
+        <v>5.757846804399502e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>6.239888631729458</v>
+        <v>6.22291462397216</v>
       </c>
       <c r="N5" t="n">
-        <v>66.47095154439961</v>
+        <v>66.28090292176329</v>
       </c>
       <c r="O5" t="n">
-        <v>8.152971945517757</v>
+        <v>8.141308428119112</v>
       </c>
       <c r="P5" t="n">
-        <v>333.9479732715386</v>
+        <v>333.9499596350179</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22606,28 +22706,28 @@
         <v>0.0579</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0438682773717974</v>
+        <v>0.03213812409371199</v>
       </c>
       <c r="J6" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K6" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001556331048130133</v>
+        <v>0.0008332912617212695</v>
       </c>
       <c r="M6" t="n">
-        <v>6.628877986512993</v>
+        <v>6.647424747201932</v>
       </c>
       <c r="N6" t="n">
-        <v>70.59292757307405</v>
+        <v>71.20765295381507</v>
       </c>
       <c r="O6" t="n">
-        <v>8.401959745980342</v>
+        <v>8.43846271271107</v>
       </c>
       <c r="P6" t="n">
-        <v>333.4285435839548</v>
+        <v>333.5439277227634</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22684,28 +22784,28 @@
         <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06674817191127756</v>
+        <v>0.06466872027709777</v>
       </c>
       <c r="J7" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K7" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L7" t="n">
-        <v>0.004304983704851439</v>
+        <v>0.004062385169391947</v>
       </c>
       <c r="M7" t="n">
-        <v>6.082778687415908</v>
+        <v>6.074684342950457</v>
       </c>
       <c r="N7" t="n">
-        <v>59.22024882027104</v>
+        <v>59.08751326730968</v>
       </c>
       <c r="O7" t="n">
-        <v>7.6954693697182</v>
+        <v>7.686840265499842</v>
       </c>
       <c r="P7" t="n">
-        <v>336.509582369614</v>
+        <v>336.5298782982078</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -22762,28 +22862,28 @@
         <v>0.053</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1393223579061811</v>
+        <v>0.1428407196135756</v>
       </c>
       <c r="J8" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K8" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0141801215938584</v>
+        <v>0.01503674311629966</v>
       </c>
       <c r="M8" t="n">
-        <v>6.866462808234336</v>
+        <v>6.850043578626268</v>
       </c>
       <c r="N8" t="n">
-        <v>78.58635092379863</v>
+        <v>78.26651366886937</v>
       </c>
       <c r="O8" t="n">
-        <v>8.864894298512455</v>
+        <v>8.846836364987732</v>
       </c>
       <c r="P8" t="n">
-        <v>333.5366605117252</v>
+        <v>333.5026807910474</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -22840,28 +22940,28 @@
         <v>0.0513</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2214372443041492</v>
+        <v>0.2234991771267945</v>
       </c>
       <c r="J9" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K9" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02429217883081591</v>
+        <v>0.02486519007254318</v>
       </c>
       <c r="M9" t="n">
-        <v>8.417907994648434</v>
+        <v>8.405476943013747</v>
       </c>
       <c r="N9" t="n">
-        <v>115.3058849128539</v>
+        <v>115.0100974506284</v>
       </c>
       <c r="O9" t="n">
-        <v>10.73805778122161</v>
+        <v>10.72427608049272</v>
       </c>
       <c r="P9" t="n">
-        <v>329.8468056186289</v>
+        <v>329.8270007948738</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -22918,28 +23018,28 @@
         <v>0.0525</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2086360338043978</v>
+        <v>0.2119619548091315</v>
       </c>
       <c r="J10" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K10" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01879326070013188</v>
+        <v>0.01947595853645734</v>
       </c>
       <c r="M10" t="n">
-        <v>9.160186630995122</v>
+        <v>9.153132737872948</v>
       </c>
       <c r="N10" t="n">
-        <v>134.0342426887814</v>
+        <v>133.7584775806218</v>
       </c>
       <c r="O10" t="n">
-        <v>11.57731586719398</v>
+        <v>11.56540001818449</v>
       </c>
       <c r="P10" t="n">
-        <v>333.6329886171841</v>
+        <v>333.6010997126575</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -22996,28 +23096,28 @@
         <v>0.0608</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1273389455713253</v>
+        <v>0.1463933426855631</v>
       </c>
       <c r="J11" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K11" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L11" t="n">
-        <v>0.008218846411201519</v>
+        <v>0.01069436758422493</v>
       </c>
       <c r="M11" t="n">
-        <v>8.237251559909362</v>
+        <v>8.303591553233721</v>
       </c>
       <c r="N11" t="n">
-        <v>112.9060615960723</v>
+        <v>114.9973415497092</v>
       </c>
       <c r="O11" t="n">
-        <v>10.62572640321932</v>
+        <v>10.72368134316333</v>
       </c>
       <c r="P11" t="n">
-        <v>330.0068646177568</v>
+        <v>329.8209076094963</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23074,28 +23174,28 @@
         <v>0.0392</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.07186014749778823</v>
+        <v>-0.06935955458143367</v>
       </c>
       <c r="J12" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K12" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002181476137266714</v>
+        <v>0.002042987316836054</v>
       </c>
       <c r="M12" t="n">
-        <v>8.779693703513848</v>
+        <v>8.769228720783277</v>
       </c>
       <c r="N12" t="n">
-        <v>137.340922074118</v>
+        <v>137.0147488505235</v>
       </c>
       <c r="O12" t="n">
-        <v>11.71925433097678</v>
+        <v>11.70532993343304</v>
       </c>
       <c r="P12" t="n">
-        <v>331.6931472361861</v>
+        <v>331.6690159916425</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23152,28 +23252,28 @@
         <v>0.0288</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.003964520920944807</v>
+        <v>0.004169794378794844</v>
       </c>
       <c r="J13" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K13" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L13" t="n">
-        <v>3.671852767506145e-06</v>
+        <v>4.10734831113313e-06</v>
       </c>
       <c r="M13" t="n">
-        <v>12.00613373136151</v>
+        <v>11.977078641867</v>
       </c>
       <c r="N13" t="n">
-        <v>250.862756327881</v>
+        <v>249.6297231847762</v>
       </c>
       <c r="O13" t="n">
-        <v>15.83864755362278</v>
+        <v>15.79967478098129</v>
       </c>
       <c r="P13" t="n">
-        <v>330.1424802752968</v>
+        <v>330.064874774308</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23211,7 +23311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N388"/>
+  <dimension ref="A1:N390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48931,6 +49031,118 @@
         </is>
       </c>
     </row>
+    <row r="389">
+      <c r="A389" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-23 22:00:06+00:00</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>-41.18990279522008,175.99244663371792</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>-41.190529129778874,175.9920790541579</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>-41.19118630639689,175.99186882883401</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>-41.19183983956478,175.99160833115926</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>-41.1925078173491,175.99140097509735</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>-41.19319226961421,175.99130363577848</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>-41.19387691049076,175.99130045188667</t>
+        </is>
+      </c>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>-41.19455456004424,175.99132958563504</t>
+        </is>
+      </c>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>-41.1952337304094,175.99139944929533</t>
+        </is>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>-41.19591214737862,175.9915037444213</t>
+        </is>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>-41.196587131010176,175.99161819122807</t>
+        </is>
+      </c>
+      <c r="M389" t="inlineStr">
+        <is>
+          <t>-41.19724086704427,175.99185077342494</t>
+        </is>
+      </c>
+      <c r="N389" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:54:21+00:00</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr"/>
+      <c r="C390" t="inlineStr"/>
+      <c r="D390" t="inlineStr"/>
+      <c r="E390" t="inlineStr"/>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>-41.19248740849639,175.9912199517467</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr"/>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>-41.19387658984759,175.99138422148314</t>
+        </is>
+      </c>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>-41.195866278021576,175.99178199999832</t>
+        </is>
+      </c>
+      <c r="L390" t="inlineStr"/>
+      <c r="M390" t="inlineStr">
+        <is>
+          <t>-41.19724546894181,175.9918253968281</t>
+        </is>
+      </c>
+      <c r="N390" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0346/nzd0346.xlsx
+++ b/data/nzd0346/nzd0346.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N390"/>
+  <dimension ref="A1:N391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18052,6 +18052,54 @@
         </is>
       </c>
     </row>
+    <row r="391">
+      <c r="A391" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:54:32+00:00</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>342.53</v>
+      </c>
+      <c r="C391" t="n">
+        <v>338.24</v>
+      </c>
+      <c r="D391" t="n">
+        <v>334.5266666666667</v>
+      </c>
+      <c r="E391" t="n">
+        <v>330.9166666666667</v>
+      </c>
+      <c r="F391" t="n">
+        <v>329.12</v>
+      </c>
+      <c r="G391" t="n">
+        <v>330.9990909090909</v>
+      </c>
+      <c r="H391" t="n">
+        <v>334.57</v>
+      </c>
+      <c r="I391" t="n">
+        <v>336.5688888888889</v>
+      </c>
+      <c r="J391" t="n">
+        <v>350.7988888888889</v>
+      </c>
+      <c r="K391" t="n">
+        <v>335.7990909090909</v>
+      </c>
+      <c r="L391" t="n">
+        <v>333.4</v>
+      </c>
+      <c r="M391" t="n">
+        <v>333.84</v>
+      </c>
+      <c r="N391" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18063,7 +18111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B415"/>
+  <dimension ref="A1:B416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22221,6 +22269,16 @@
       </c>
       <c r="B415" t="n">
         <v>-0.51</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>0.49</v>
       </c>
     </row>
   </sheetData>
@@ -22394,28 +22452,28 @@
         <v>0.055</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.185686637141871</v>
+        <v>-0.1842498187155552</v>
       </c>
       <c r="J2" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K2" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02411496076358599</v>
+        <v>0.02387680351828547</v>
       </c>
       <c r="M2" t="n">
-        <v>6.72971615239812</v>
+        <v>6.717839771506441</v>
       </c>
       <c r="N2" t="n">
-        <v>80.88719033441137</v>
+        <v>80.67053955682927</v>
       </c>
       <c r="O2" t="n">
-        <v>8.993730612733037</v>
+        <v>8.981677992270113</v>
       </c>
       <c r="P2" t="n">
-        <v>344.6299778791202</v>
+        <v>344.6158919405205</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22472,28 +22530,28 @@
         <v>0.0564</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1257952420497696</v>
+        <v>-0.1235257577012579</v>
       </c>
       <c r="J3" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K3" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01202099304168025</v>
+        <v>0.01165181406732974</v>
       </c>
       <c r="M3" t="n">
-        <v>6.621827487732839</v>
+        <v>6.615206380505547</v>
       </c>
       <c r="N3" t="n">
-        <v>75.3756504470232</v>
+        <v>75.2069869619572</v>
       </c>
       <c r="O3" t="n">
-        <v>8.681915137054911</v>
+        <v>8.672196201767877</v>
       </c>
       <c r="P3" t="n">
-        <v>337.2073664422365</v>
+        <v>337.1850240704377</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22550,28 +22608,28 @@
         <v>0.0669</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.02423731780437351</v>
+        <v>-0.02297232181462199</v>
       </c>
       <c r="J4" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K4" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004526984218580221</v>
+        <v>0.0004089027219900121</v>
       </c>
       <c r="M4" t="n">
-        <v>6.26557696907228</v>
+        <v>6.255409471152136</v>
       </c>
       <c r="N4" t="n">
-        <v>73.66928551831109</v>
+        <v>73.47126177671012</v>
       </c>
       <c r="O4" t="n">
-        <v>8.583081353355047</v>
+        <v>8.571537888658611</v>
       </c>
       <c r="P4" t="n">
-        <v>332.7874113939314</v>
+        <v>332.7748426650934</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22628,28 +22686,28 @@
         <v>0.0654</v>
       </c>
       <c r="I5" t="n">
-        <v>0.008193655607836921</v>
+        <v>0.006485084400443652</v>
       </c>
       <c r="J5" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K5" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L5" t="n">
-        <v>5.757846804399502e-05</v>
+        <v>3.625473370816312e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>6.22291462397216</v>
+        <v>6.21275057654463</v>
       </c>
       <c r="N5" t="n">
-        <v>66.28090292176329</v>
+        <v>66.12136387261971</v>
       </c>
       <c r="O5" t="n">
-        <v>8.141308428119112</v>
+        <v>8.131504404021417</v>
       </c>
       <c r="P5" t="n">
-        <v>333.9499596350179</v>
+        <v>333.9669038903512</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22706,28 +22764,28 @@
         <v>0.0579</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03213812409371199</v>
+        <v>0.02931195170492605</v>
       </c>
       <c r="J6" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K6" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0008332912617212695</v>
+        <v>0.0006964353045042504</v>
       </c>
       <c r="M6" t="n">
-        <v>6.647424747201932</v>
+        <v>6.641918562953021</v>
       </c>
       <c r="N6" t="n">
-        <v>71.20765295381507</v>
+        <v>71.07834907075089</v>
       </c>
       <c r="O6" t="n">
-        <v>8.43846271271107</v>
+        <v>8.430797653291823</v>
       </c>
       <c r="P6" t="n">
-        <v>333.5439277227634</v>
+        <v>333.5717695326922</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22784,28 +22842,28 @@
         <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06466872027709777</v>
+        <v>0.06076015186725085</v>
       </c>
       <c r="J7" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K7" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L7" t="n">
-        <v>0.004062385169391947</v>
+        <v>0.003599359090102561</v>
       </c>
       <c r="M7" t="n">
-        <v>6.074684342950457</v>
+        <v>6.07524060992601</v>
       </c>
       <c r="N7" t="n">
-        <v>59.08751326730968</v>
+        <v>59.06483398066706</v>
       </c>
       <c r="O7" t="n">
-        <v>7.686840265499842</v>
+        <v>7.685364921763121</v>
       </c>
       <c r="P7" t="n">
-        <v>336.5298782982078</v>
+        <v>336.5681640973024</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -22862,28 +22920,28 @@
         <v>0.053</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1428407196135756</v>
+        <v>0.1414645857357693</v>
       </c>
       <c r="J8" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K8" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01503674311629966</v>
+        <v>0.01483107381236526</v>
       </c>
       <c r="M8" t="n">
-        <v>6.850043578626268</v>
+        <v>6.836645306439376</v>
       </c>
       <c r="N8" t="n">
-        <v>78.26651366886937</v>
+        <v>78.06064854162058</v>
       </c>
       <c r="O8" t="n">
-        <v>8.846836364987732</v>
+        <v>8.83519374669399</v>
       </c>
       <c r="P8" t="n">
-        <v>333.5026807910474</v>
+        <v>333.5159857822524</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -22940,28 +22998,28 @@
         <v>0.0513</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2234991771267945</v>
+        <v>0.2240139781639341</v>
       </c>
       <c r="J9" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K9" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02486519007254318</v>
+        <v>0.02511680293821861</v>
       </c>
       <c r="M9" t="n">
-        <v>8.405476943013747</v>
+        <v>8.383877918172496</v>
       </c>
       <c r="N9" t="n">
-        <v>115.0100974506284</v>
+        <v>114.67553095957</v>
       </c>
       <c r="O9" t="n">
-        <v>10.72427608049272</v>
+        <v>10.70866616155205</v>
       </c>
       <c r="P9" t="n">
-        <v>329.8270007948738</v>
+        <v>329.8220381022082</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23018,28 +23076,28 @@
         <v>0.0525</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2119619548091315</v>
+        <v>0.2181067255347713</v>
       </c>
       <c r="J10" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K10" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01947595853645734</v>
+        <v>0.02065150671267424</v>
       </c>
       <c r="M10" t="n">
-        <v>9.153132737872948</v>
+        <v>9.162572677487855</v>
       </c>
       <c r="N10" t="n">
-        <v>133.7584775806218</v>
+        <v>133.7654974872726</v>
       </c>
       <c r="O10" t="n">
-        <v>11.56540001818449</v>
+        <v>11.56570350161513</v>
       </c>
       <c r="P10" t="n">
-        <v>333.6010997126575</v>
+        <v>333.5419648759462</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23096,28 +23154,28 @@
         <v>0.0608</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1463933426855631</v>
+        <v>0.147504443162619</v>
       </c>
       <c r="J11" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K11" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01069436758422493</v>
+        <v>0.01091225313525113</v>
       </c>
       <c r="M11" t="n">
-        <v>8.303591553233721</v>
+        <v>8.287036179290583</v>
       </c>
       <c r="N11" t="n">
-        <v>114.9973415497092</v>
+        <v>114.6903164535753</v>
       </c>
       <c r="O11" t="n">
-        <v>10.72368134316333</v>
+        <v>10.70935649110512</v>
       </c>
       <c r="P11" t="n">
-        <v>329.8209076094963</v>
+        <v>329.8100466450928</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23174,28 +23232,28 @@
         <v>0.0392</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.06935955458143367</v>
+        <v>-0.06752785339297653</v>
       </c>
       <c r="J12" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K12" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002042987316836054</v>
+        <v>0.001947054897350031</v>
       </c>
       <c r="M12" t="n">
-        <v>8.769228720783277</v>
+        <v>8.754876920737008</v>
       </c>
       <c r="N12" t="n">
-        <v>137.0147488505235</v>
+        <v>136.6604819338137</v>
       </c>
       <c r="O12" t="n">
-        <v>11.70532993343304</v>
+        <v>11.69018742081639</v>
       </c>
       <c r="P12" t="n">
-        <v>331.6690159916425</v>
+        <v>331.6512757710099</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23252,28 +23310,28 @@
         <v>0.0288</v>
       </c>
       <c r="I13" t="n">
-        <v>0.004169794378794844</v>
+        <v>0.006238883537908017</v>
       </c>
       <c r="J13" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K13" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L13" t="n">
-        <v>4.10734831113313e-06</v>
+        <v>9.249914452169605e-06</v>
       </c>
       <c r="M13" t="n">
-        <v>11.977078641867</v>
+        <v>11.95157709951174</v>
       </c>
       <c r="N13" t="n">
-        <v>249.6297231847762</v>
+        <v>248.9003902639792</v>
       </c>
       <c r="O13" t="n">
-        <v>15.79967478098129</v>
+        <v>15.77657726707473</v>
       </c>
       <c r="P13" t="n">
-        <v>330.064874774308</v>
+        <v>330.0450838446993</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23311,7 +23369,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N390"/>
+  <dimension ref="A1:N391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49143,6 +49201,78 @@
         </is>
       </c>
     </row>
+    <row r="391">
+      <c r="A391" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:54:32+00:00</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>-41.189903270041725,175.99244905572561</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>-41.19054378156167,175.99215379108136</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>-41.19118559038466,175.99186517653155</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>-41.1918343556577,175.99157495292226</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>-41.19250478792828,175.99137410443765</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>-41.193190201225526,175.99126311614793</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>-41.19387701903038,175.99127209176623</t>
+        </is>
+      </c>
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>-41.19455514573906,175.99129572575973</t>
+        </is>
+      </c>
+      <c r="J391" t="inlineStr">
+        <is>
+          <t>-41.19522805794652,175.99146405140877</t>
+        </is>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>-41.195920319696846,175.99145416852545</t>
+        </is>
+      </c>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>-41.19658966044607,175.99160378155884</t>
+        </is>
+      </c>
+      <c r="M391" t="inlineStr">
+        <is>
+          <t>-41.19725025995259,175.99179897735326</t>
+        </is>
+      </c>
+      <c r="N391" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0346/nzd0346.xlsx
+++ b/data/nzd0346/nzd0346.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N391"/>
+  <dimension ref="A1:N394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18100,6 +18100,138 @@
         </is>
       </c>
     </row>
+    <row r="392">
+      <c r="A392" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-24 22:00:22+00:00</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>332.99</v>
+      </c>
+      <c r="C392" t="n">
+        <v>328.38</v>
+      </c>
+      <c r="D392" t="n">
+        <v>321.0166666666667</v>
+      </c>
+      <c r="E392" t="n">
+        <v>322.9666666666667</v>
+      </c>
+      <c r="F392" t="n">
+        <v>318.23</v>
+      </c>
+      <c r="G392" t="n">
+        <v>323.4054545454546</v>
+      </c>
+      <c r="H392" t="n">
+        <v>326.61</v>
+      </c>
+      <c r="I392" t="n">
+        <v>324.6055555555556</v>
+      </c>
+      <c r="J392" t="n">
+        <v>331.3055555555555</v>
+      </c>
+      <c r="K392" t="n">
+        <v>318.1054545454546</v>
+      </c>
+      <c r="L392" t="n">
+        <v>315.6471428571429</v>
+      </c>
+      <c r="M392" t="n">
+        <v>319.24</v>
+      </c>
+      <c r="N392" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:28+00:00</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>338.3200000000001</v>
+      </c>
+      <c r="C393" t="n">
+        <v>327.65</v>
+      </c>
+      <c r="D393" t="n">
+        <v>327.8266666666667</v>
+      </c>
+      <c r="E393" t="n">
+        <v>326.5566666666667</v>
+      </c>
+      <c r="F393" t="n">
+        <v>329.9</v>
+      </c>
+      <c r="G393" t="n">
+        <v>341.8081818181818</v>
+      </c>
+      <c r="H393" t="n">
+        <v>342.19</v>
+      </c>
+      <c r="I393" t="n">
+        <v>333.5455555555556</v>
+      </c>
+      <c r="J393" t="n">
+        <v>344.0955555555556</v>
+      </c>
+      <c r="K393" t="n">
+        <v>332.2981818181818</v>
+      </c>
+      <c r="L393" t="n">
+        <v>327.6457142857143</v>
+      </c>
+      <c r="M393" t="n">
+        <v>335.31</v>
+      </c>
+      <c r="N393" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-27 21:54:45+00:00</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr"/>
+      <c r="C394" t="inlineStr"/>
+      <c r="D394" t="inlineStr"/>
+      <c r="E394" t="inlineStr"/>
+      <c r="F394" t="inlineStr"/>
+      <c r="G394" t="inlineStr"/>
+      <c r="H394" t="n">
+        <v>330.27</v>
+      </c>
+      <c r="I394" t="n">
+        <v>327.7566666666667</v>
+      </c>
+      <c r="J394" t="n">
+        <v>331.6966666666667</v>
+      </c>
+      <c r="K394" t="n">
+        <v>317.6581818181818</v>
+      </c>
+      <c r="L394" t="n">
+        <v>313.93</v>
+      </c>
+      <c r="M394" t="n">
+        <v>326.75</v>
+      </c>
+      <c r="N394" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18111,7 +18243,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B416"/>
+  <dimension ref="A1:B420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22279,6 +22411,46 @@
       </c>
       <c r="B416" t="n">
         <v>0.49</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>2025-06-24 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>-0.74</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>2025-07-03 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>2025-07-27 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>
@@ -22452,28 +22624,28 @@
         <v>0.055</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1842498187155552</v>
+        <v>-0.1886461197432946</v>
       </c>
       <c r="J2" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K2" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02387680351828547</v>
+        <v>0.02523120355847031</v>
       </c>
       <c r="M2" t="n">
-        <v>6.717839771506441</v>
+        <v>6.70270708015308</v>
       </c>
       <c r="N2" t="n">
-        <v>80.67053955682927</v>
+        <v>80.34138381569277</v>
       </c>
       <c r="O2" t="n">
-        <v>8.981677992270113</v>
+        <v>8.963335529572278</v>
       </c>
       <c r="P2" t="n">
-        <v>344.6158919405205</v>
+        <v>344.6590620737885</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22530,28 +22702,28 @@
         <v>0.0564</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1235257577012579</v>
+        <v>-0.1297775777188282</v>
       </c>
       <c r="J3" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K3" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01165181406732974</v>
+        <v>0.01295101888259076</v>
       </c>
       <c r="M3" t="n">
-        <v>6.615206380505547</v>
+        <v>6.610086177785531</v>
       </c>
       <c r="N3" t="n">
-        <v>75.2069869619572</v>
+        <v>74.97223164411865</v>
       </c>
       <c r="O3" t="n">
-        <v>8.672196201767877</v>
+        <v>8.658650682647883</v>
       </c>
       <c r="P3" t="n">
-        <v>337.1850240704377</v>
+        <v>337.2467506637203</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22608,28 +22780,28 @@
         <v>0.0669</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.02297232181462199</v>
+        <v>-0.03115863998198676</v>
       </c>
       <c r="J4" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K4" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004089027219900121</v>
+        <v>0.0007562213475045265</v>
       </c>
       <c r="M4" t="n">
-        <v>6.255409471152136</v>
+        <v>6.255828775021135</v>
       </c>
       <c r="N4" t="n">
-        <v>73.47126177671012</v>
+        <v>73.45568761691415</v>
       </c>
       <c r="O4" t="n">
-        <v>8.571537888658611</v>
+        <v>8.570629359441122</v>
       </c>
       <c r="P4" t="n">
-        <v>332.7748426650934</v>
+        <v>332.8563382737973</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22686,28 +22858,28 @@
         <v>0.0654</v>
       </c>
       <c r="I5" t="n">
-        <v>0.006485084400443652</v>
+        <v>-0.00326342492847761</v>
       </c>
       <c r="J5" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K5" t="n">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L5" t="n">
-        <v>3.625473370816312e-05</v>
+        <v>9.211686978316536e-06</v>
       </c>
       <c r="M5" t="n">
-        <v>6.21275057654463</v>
+        <v>6.220439474721763</v>
       </c>
       <c r="N5" t="n">
-        <v>66.12136387261971</v>
+        <v>66.25488142467593</v>
       </c>
       <c r="O5" t="n">
-        <v>8.131504404021417</v>
+        <v>8.139710156060591</v>
       </c>
       <c r="P5" t="n">
-        <v>333.9669038903512</v>
+        <v>334.0638106400323</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22764,28 +22936,28 @@
         <v>0.0579</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02931195170492605</v>
+        <v>0.01842267998322081</v>
       </c>
       <c r="J6" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K6" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0006964353045042504</v>
+        <v>0.0002752006100467108</v>
       </c>
       <c r="M6" t="n">
-        <v>6.641918562953021</v>
+        <v>6.65769265655574</v>
       </c>
       <c r="N6" t="n">
-        <v>71.07834907075089</v>
+        <v>71.46871469738953</v>
       </c>
       <c r="O6" t="n">
-        <v>8.430797653291823</v>
+        <v>8.453917121511751</v>
       </c>
       <c r="P6" t="n">
-        <v>333.5717695326922</v>
+        <v>333.679231354027</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22842,28 +23014,28 @@
         <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06076015186725085</v>
+        <v>0.05485779887935294</v>
       </c>
       <c r="J7" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K7" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003599359090102561</v>
+        <v>0.002936143166068717</v>
       </c>
       <c r="M7" t="n">
-        <v>6.07524060992601</v>
+        <v>6.089673695550506</v>
       </c>
       <c r="N7" t="n">
-        <v>59.06483398066706</v>
+        <v>59.39233845033034</v>
       </c>
       <c r="O7" t="n">
-        <v>7.685364921763121</v>
+        <v>7.706642488809918</v>
       </c>
       <c r="P7" t="n">
-        <v>336.5681640973024</v>
+        <v>336.6259689646478</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -22920,28 +23092,28 @@
         <v>0.053</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1414645857357693</v>
+        <v>0.1350610085160227</v>
       </c>
       <c r="J8" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K8" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01483107381236526</v>
+        <v>0.0136706896559462</v>
       </c>
       <c r="M8" t="n">
-        <v>6.836645306439376</v>
+        <v>6.836486179625785</v>
       </c>
       <c r="N8" t="n">
-        <v>78.06064854162058</v>
+        <v>77.91511295727859</v>
       </c>
       <c r="O8" t="n">
-        <v>8.83519374669399</v>
+        <v>8.826953775639623</v>
       </c>
       <c r="P8" t="n">
-        <v>333.5159857822524</v>
+        <v>333.5780364326883</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -22998,28 +23170,28 @@
         <v>0.0513</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2240139781639341</v>
+        <v>0.2130465712206715</v>
       </c>
       <c r="J9" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K9" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02511680293821861</v>
+        <v>0.02304947495636034</v>
       </c>
       <c r="M9" t="n">
-        <v>8.383877918172496</v>
+        <v>8.365527661312743</v>
       </c>
       <c r="N9" t="n">
-        <v>114.67553095957</v>
+        <v>114.21021329527</v>
       </c>
       <c r="O9" t="n">
-        <v>10.70866616155205</v>
+        <v>10.68691785760843</v>
       </c>
       <c r="P9" t="n">
-        <v>329.8220381022082</v>
+        <v>329.9280962033759</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23076,28 +23248,28 @@
         <v>0.0525</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2181067255347713</v>
+        <v>0.2127190148732879</v>
       </c>
       <c r="J10" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K10" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02065150671267424</v>
+        <v>0.01992818556148102</v>
       </c>
       <c r="M10" t="n">
-        <v>9.162572677487855</v>
+        <v>9.139793663379082</v>
       </c>
       <c r="N10" t="n">
-        <v>133.7654974872726</v>
+        <v>133.0145985746983</v>
       </c>
       <c r="O10" t="n">
-        <v>11.56570350161513</v>
+        <v>11.53319550578669</v>
       </c>
       <c r="P10" t="n">
-        <v>333.5419648759462</v>
+        <v>333.5939613351959</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23154,28 +23326,28 @@
         <v>0.0608</v>
       </c>
       <c r="I11" t="n">
-        <v>0.147504443162619</v>
+        <v>0.1311747943034219</v>
       </c>
       <c r="J11" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K11" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01091225313525113</v>
+        <v>0.008685696500305484</v>
       </c>
       <c r="M11" t="n">
-        <v>8.287036179290583</v>
+        <v>8.30088418548374</v>
       </c>
       <c r="N11" t="n">
-        <v>114.6903164535753</v>
+        <v>115.0918039280895</v>
       </c>
       <c r="O11" t="n">
-        <v>10.70935649110512</v>
+        <v>10.72808482107079</v>
       </c>
       <c r="P11" t="n">
-        <v>329.8100466450928</v>
+        <v>329.970222891206</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23232,28 +23404,28 @@
         <v>0.0392</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.06752785339297653</v>
+        <v>-0.08409752438507281</v>
       </c>
       <c r="J12" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K12" t="n">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001947054897350031</v>
+        <v>0.003038350493728581</v>
       </c>
       <c r="M12" t="n">
-        <v>8.754876920737008</v>
+        <v>8.765231041070745</v>
       </c>
       <c r="N12" t="n">
-        <v>136.6604819338137</v>
+        <v>136.7862483786225</v>
       </c>
       <c r="O12" t="n">
-        <v>11.69018742081639</v>
+        <v>11.69556532958636</v>
       </c>
       <c r="P12" t="n">
-        <v>331.6512757710099</v>
+        <v>331.8123273370443</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23310,28 +23482,28 @@
         <v>0.0288</v>
       </c>
       <c r="I13" t="n">
-        <v>0.006238883537908017</v>
+        <v>0.001114976349401379</v>
       </c>
       <c r="J13" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K13" t="n">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="L13" t="n">
-        <v>9.249914452169605e-06</v>
+        <v>3.002746931102251e-07</v>
       </c>
       <c r="M13" t="n">
-        <v>11.95157709951174</v>
+        <v>11.90105341357935</v>
       </c>
       <c r="N13" t="n">
-        <v>248.9003902639792</v>
+        <v>247.0984853345818</v>
       </c>
       <c r="O13" t="n">
-        <v>15.77657726707473</v>
+        <v>15.71936656912682</v>
       </c>
       <c r="P13" t="n">
-        <v>330.0450838446993</v>
+        <v>330.094133561142</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23369,7 +23541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N391"/>
+  <dimension ref="A1:N394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49273,6 +49445,198 @@
         </is>
       </c>
     </row>
+    <row r="392">
+      <c r="A392" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-24 22:00:22+00:00</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>-41.18988169951953,175.99233902740772</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>-41.19052148731687,175.9920400710217</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>-41.19115504293105,175.99170935784178</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>-41.1918191473288,175.99148238655883</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>-41.192490318370005,175.99124576171073</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>-41.193185592678084,175.99117283595297</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>-41.19387738199447,175.9911772402673</t>
+        </is>
+      </c>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>-41.19455761090602,175.9911532045279</t>
+        </is>
+      </c>
+      <c r="J392" t="inlineStr">
+        <is>
+          <t>-41.19524831789733,175.99123331448325</t>
+        </is>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>-41.195954277164375,175.99124817016053</t>
+        </is>
+      </c>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>-41.19662583205911,175.99139771818204</t>
+        </is>
+      </c>
+      <c r="M392" t="inlineStr">
+        <is>
+          <t>-41.19728093909131,175.99162979991488</t>
+        </is>
+      </c>
+      <c r="N392" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:28+00:00</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>-41.18989375098809,175.9924005002438</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>-41.19051983672419,175.9920316515881</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>-41.191170441045344,175.991787901517</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>-41.191826014998696,175.99152418696218</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>-41.192505824309826,175.99138329703152</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>-41.19319676109643,175.9913916246647</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>-41.19387667149652,175.9913628918139</t>
+        </is>
+      </c>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>-41.194555768744394,175.99125970827572</t>
+        </is>
+      </c>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>-41.19523502495462,175.99138470601798</t>
+        </is>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>-41.195927038638764,175.99141340916967</t>
+        </is>
+      </c>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>-41.19660138489685,175.9915369896586</t>
+        </is>
+      </c>
+      <c r="M393" t="inlineStr">
+        <is>
+          <t>-41.19724717101211,175.9918160109625</t>
+        </is>
+      </c>
+      <c r="N393" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-27 21:54:45+00:00</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr"/>
+      <c r="C394" t="inlineStr"/>
+      <c r="D394" t="inlineStr"/>
+      <c r="E394" t="inlineStr"/>
+      <c r="F394" t="inlineStr"/>
+      <c r="G394" t="inlineStr"/>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>-41.19387721511365,175.99122085289187</t>
+        </is>
+      </c>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>-41.194556961604505,175.99119074425445</t>
+        </is>
+      </c>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>-41.19524791140943,175.99123794395354</t>
+        </is>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>-41.19595513556147,175.9912429627796</t>
+        </is>
+      </c>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>-41.196629330734616,175.99137778671488</t>
+        </is>
+      </c>
+      <c r="M394" t="inlineStr">
+        <is>
+          <t>-41.19726515827709,175.99171682202967</t>
+        </is>
+      </c>
+      <c r="N394" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0346/nzd0346.xlsx
+++ b/data/nzd0346/nzd0346.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N394"/>
+  <dimension ref="A1:N397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18232,6 +18232,134 @@
         </is>
       </c>
     </row>
+    <row r="395">
+      <c r="A395" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-12 21:54:55+00:00</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr"/>
+      <c r="C395" t="inlineStr"/>
+      <c r="D395" t="inlineStr"/>
+      <c r="E395" t="n">
+        <v>275.24</v>
+      </c>
+      <c r="F395" t="n">
+        <v>367.2000000000001</v>
+      </c>
+      <c r="G395" t="n">
+        <v>356.98</v>
+      </c>
+      <c r="H395" t="inlineStr"/>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="n">
+        <v>327.05</v>
+      </c>
+      <c r="L395" t="inlineStr"/>
+      <c r="M395" t="inlineStr"/>
+      <c r="N395" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-19 22:01:09+00:00</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>327.69</v>
+      </c>
+      <c r="C396" t="n">
+        <v>322.34</v>
+      </c>
+      <c r="D396" t="n">
+        <v>311.64</v>
+      </c>
+      <c r="E396" t="n">
+        <v>313.51</v>
+      </c>
+      <c r="F396" t="n">
+        <v>321.8</v>
+      </c>
+      <c r="G396" t="n">
+        <v>330.43</v>
+      </c>
+      <c r="H396" t="n">
+        <v>330.56</v>
+      </c>
+      <c r="I396" t="n">
+        <v>328.6966666666667</v>
+      </c>
+      <c r="J396" t="n">
+        <v>334.7866666666667</v>
+      </c>
+      <c r="K396" t="n">
+        <v>322.06</v>
+      </c>
+      <c r="L396" t="n">
+        <v>322.4914285714286</v>
+      </c>
+      <c r="M396" t="n">
+        <v>318.62</v>
+      </c>
+      <c r="N396" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:54:59+00:00</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>342.83</v>
+      </c>
+      <c r="C397" t="n">
+        <v>331.1</v>
+      </c>
+      <c r="D397" t="n">
+        <v>329.9866666666667</v>
+      </c>
+      <c r="E397" t="n">
+        <v>325.8766666666667</v>
+      </c>
+      <c r="F397" t="n">
+        <v>322.61</v>
+      </c>
+      <c r="G397" t="n">
+        <v>327.65</v>
+      </c>
+      <c r="H397" t="n">
+        <v>328.21</v>
+      </c>
+      <c r="I397" t="n">
+        <v>335.9722222222222</v>
+      </c>
+      <c r="J397" t="n">
+        <v>341.0422222222222</v>
+      </c>
+      <c r="K397" t="n">
+        <v>326.8</v>
+      </c>
+      <c r="L397" t="n">
+        <v>331.7142857142857</v>
+      </c>
+      <c r="M397" t="n">
+        <v>325.52</v>
+      </c>
+      <c r="N397" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18243,7 +18371,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B420"/>
+  <dimension ref="A1:B423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22451,6 +22579,36 @@
       </c>
       <c r="B420" t="n">
         <v>0.21</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>2025-08-12 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>2025-08-19 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>0.55</v>
       </c>
     </row>
   </sheetData>
@@ -22624,28 +22782,28 @@
         <v>0.055</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1886461197432946</v>
+        <v>-0.1933355932483881</v>
       </c>
       <c r="J2" t="n">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K2" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02523120355847031</v>
+        <v>0.02661238039449043</v>
       </c>
       <c r="M2" t="n">
-        <v>6.70270708015308</v>
+        <v>6.707399543104811</v>
       </c>
       <c r="N2" t="n">
-        <v>80.34138381569277</v>
+        <v>80.32279140976965</v>
       </c>
       <c r="O2" t="n">
-        <v>8.963335529572278</v>
+        <v>8.962298333004188</v>
       </c>
       <c r="P2" t="n">
-        <v>344.6590620737885</v>
+        <v>344.7054372841175</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22702,28 +22860,28 @@
         <v>0.0564</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1297775777188282</v>
+        <v>-0.1372238246042546</v>
       </c>
       <c r="J3" t="n">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K3" t="n">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01295101888259076</v>
+        <v>0.01453845311692747</v>
       </c>
       <c r="M3" t="n">
-        <v>6.610086177785531</v>
+        <v>6.611271350350733</v>
       </c>
       <c r="N3" t="n">
-        <v>74.97223164411865</v>
+        <v>74.93997326598419</v>
       </c>
       <c r="O3" t="n">
-        <v>8.658650682647883</v>
+        <v>8.656787699024633</v>
       </c>
       <c r="P3" t="n">
-        <v>337.2467506637203</v>
+        <v>337.3207570152122</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22780,28 +22938,28 @@
         <v>0.0669</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03115863998198676</v>
+        <v>-0.04296362068427148</v>
       </c>
       <c r="J4" t="n">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K4" t="n">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0007562213475045265</v>
+        <v>0.001429597317238129</v>
       </c>
       <c r="M4" t="n">
-        <v>6.255828775021135</v>
+        <v>6.271604605216611</v>
       </c>
       <c r="N4" t="n">
-        <v>73.45568761691415</v>
+        <v>74.23002642695361</v>
       </c>
       <c r="O4" t="n">
-        <v>8.570629359441122</v>
+        <v>8.615684907594614</v>
       </c>
       <c r="P4" t="n">
-        <v>332.8563382737973</v>
+        <v>332.974694500933</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22858,28 +23016,28 @@
         <v>0.0654</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.00326342492847761</v>
+        <v>-0.04803628074998474</v>
       </c>
       <c r="J5" t="n">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K5" t="n">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L5" t="n">
-        <v>9.211686978316536e-06</v>
+        <v>0.001737114275076723</v>
       </c>
       <c r="M5" t="n">
-        <v>6.220439474721763</v>
+        <v>6.369492661465313</v>
       </c>
       <c r="N5" t="n">
-        <v>66.25488142467593</v>
+        <v>76.60287442407528</v>
       </c>
       <c r="O5" t="n">
-        <v>8.139710156060591</v>
+        <v>8.752306805869827</v>
       </c>
       <c r="P5" t="n">
-        <v>334.0638106400323</v>
+        <v>334.5115544241063</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22936,28 +23094,28 @@
         <v>0.0579</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01842267998322081</v>
+        <v>0.02316159868013212</v>
       </c>
       <c r="J6" t="n">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K6" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002752006100467108</v>
+        <v>0.0004186571526727523</v>
       </c>
       <c r="M6" t="n">
-        <v>6.65769265655574</v>
+        <v>6.767639131972545</v>
       </c>
       <c r="N6" t="n">
-        <v>71.46871469738953</v>
+        <v>74.84886869517443</v>
       </c>
       <c r="O6" t="n">
-        <v>8.453917121511751</v>
+        <v>8.651524067768316</v>
       </c>
       <c r="P6" t="n">
-        <v>333.679231354027</v>
+        <v>333.6323751638166</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23014,28 +23172,28 @@
         <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05485779887935294</v>
+        <v>0.05530209644448948</v>
       </c>
       <c r="J7" t="n">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K7" t="n">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002936143166068717</v>
+        <v>0.00295849943284221</v>
       </c>
       <c r="M7" t="n">
-        <v>6.089673695550506</v>
+        <v>6.144478476626411</v>
       </c>
       <c r="N7" t="n">
-        <v>59.39233845033034</v>
+        <v>60.40239014917255</v>
       </c>
       <c r="O7" t="n">
-        <v>7.706642488809918</v>
+        <v>7.771897461313585</v>
       </c>
       <c r="P7" t="n">
-        <v>336.6259689646478</v>
+        <v>336.6217476874568</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23092,28 +23250,28 @@
         <v>0.053</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1350610085160227</v>
+        <v>0.1271749853167398</v>
       </c>
       <c r="J8" t="n">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K8" t="n">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0136706896559462</v>
+        <v>0.01222034704416797</v>
       </c>
       <c r="M8" t="n">
-        <v>6.836486179625785</v>
+        <v>6.834186011965144</v>
       </c>
       <c r="N8" t="n">
-        <v>77.91511295727859</v>
+        <v>77.81232823267804</v>
       </c>
       <c r="O8" t="n">
-        <v>8.826953775639623</v>
+        <v>8.821129646064502</v>
       </c>
       <c r="P8" t="n">
-        <v>333.5780364326883</v>
+        <v>333.655037866292</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23170,28 +23328,28 @@
         <v>0.0513</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2130465712206715</v>
+        <v>0.2097855162995719</v>
       </c>
       <c r="J9" t="n">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K9" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02304947495636034</v>
+        <v>0.0225875302076316</v>
       </c>
       <c r="M9" t="n">
-        <v>8.365527661312743</v>
+        <v>8.336351661004114</v>
       </c>
       <c r="N9" t="n">
-        <v>114.21021329527</v>
+        <v>113.6824447825181</v>
       </c>
       <c r="O9" t="n">
-        <v>10.68691785760843</v>
+        <v>10.66219699604721</v>
       </c>
       <c r="P9" t="n">
-        <v>329.9280962033759</v>
+        <v>329.9598175647595</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23248,28 +23406,28 @@
         <v>0.0525</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2127190148732879</v>
+        <v>0.2114777200851857</v>
       </c>
       <c r="J10" t="n">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K10" t="n">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01992818556148102</v>
+        <v>0.01990612470447206</v>
       </c>
       <c r="M10" t="n">
-        <v>9.139793663379082</v>
+        <v>9.104779869084453</v>
       </c>
       <c r="N10" t="n">
-        <v>133.0145985746983</v>
+        <v>132.3146500616509</v>
       </c>
       <c r="O10" t="n">
-        <v>11.53319550578669</v>
+        <v>11.50281052880777</v>
       </c>
       <c r="P10" t="n">
-        <v>333.5939613351959</v>
+        <v>333.6060057799303</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23326,28 +23484,28 @@
         <v>0.0608</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1311747943034219</v>
+        <v>0.1192858681861862</v>
       </c>
       <c r="J11" t="n">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K11" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L11" t="n">
-        <v>0.008685696500305484</v>
+        <v>0.007271316081332913</v>
       </c>
       <c r="M11" t="n">
-        <v>8.30088418548374</v>
+        <v>8.292256729181274</v>
       </c>
       <c r="N11" t="n">
-        <v>115.0918039280895</v>
+        <v>114.7130487813088</v>
       </c>
       <c r="O11" t="n">
-        <v>10.72808482107079</v>
+        <v>10.71041776875715</v>
       </c>
       <c r="P11" t="n">
-        <v>329.970222891206</v>
+        <v>330.0875119016409</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23404,28 +23562,28 @@
         <v>0.0392</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.08409752438507281</v>
+        <v>-0.08664871177317608</v>
       </c>
       <c r="J12" t="n">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K12" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L12" t="n">
-        <v>0.003038350493728581</v>
+        <v>0.003256784753400521</v>
       </c>
       <c r="M12" t="n">
-        <v>8.765231041070745</v>
+        <v>8.741060686054103</v>
       </c>
       <c r="N12" t="n">
-        <v>136.7862483786225</v>
+        <v>136.1741218599312</v>
       </c>
       <c r="O12" t="n">
-        <v>11.69556532958636</v>
+        <v>11.66936681486752</v>
       </c>
       <c r="P12" t="n">
-        <v>331.8123273370443</v>
+        <v>331.8372466299501</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23482,28 +23640,28 @@
         <v>0.0288</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001114976349401379</v>
+        <v>-0.00771246009840054</v>
       </c>
       <c r="J13" t="n">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K13" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L13" t="n">
-        <v>3.002746931102251e-07</v>
+        <v>1.451365549187678e-05</v>
       </c>
       <c r="M13" t="n">
-        <v>11.90105341357935</v>
+        <v>11.8761289334882</v>
       </c>
       <c r="N13" t="n">
-        <v>247.0984853345818</v>
+        <v>246.0558923358866</v>
       </c>
       <c r="O13" t="n">
-        <v>15.71936656912682</v>
+        <v>15.68616882275231</v>
       </c>
       <c r="P13" t="n">
-        <v>330.094133561142</v>
+        <v>330.1793697480815</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23541,7 +23699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N394"/>
+  <dimension ref="A1:N397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49637,6 +49795,190 @@
         </is>
       </c>
     </row>
+    <row r="395">
+      <c r="A395" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-12 21:54:55+00:00</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr"/>
+      <c r="C395" t="inlineStr"/>
+      <c r="D395" t="inlineStr"/>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>-41.19172784474442,175.99092667869616</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>-41.19255538373617,175.9918228918732</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>-41.19320596839562,175.99157200136617</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr"/>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>-41.19593711091856,175.99135230716317</t>
+        </is>
+      </c>
+      <c r="L395" t="inlineStr"/>
+      <c r="M395" t="inlineStr"/>
+      <c r="N395" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-19 22:01:09+00:00</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>-41.18986971584951,175.9922779005932</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>-41.190507830339236,175.99197040887015</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>-41.19113384122808,175.99160121136842</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>-41.19180105665162,175.99137227727036</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>-41.19249506185001,175.99128783549193</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>-41.19318985584901,175.99125635026687</t>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>-41.193877201890146,175.99122430853697</t>
+        </is>
+      </c>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>-41.19455676791064,175.9912019426352</t>
+        </is>
+      </c>
+      <c r="J396" t="inlineStr">
+        <is>
+          <t>-41.19524469991761,175.99127451939694</t>
+        </is>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>-41.195946687667764,175.99129421102182</t>
+        </is>
+      </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>-41.19661188680559,175.991477162135</t>
+        </is>
+      </c>
+      <c r="M396" t="inlineStr">
+        <is>
+          <t>-41.197282241898655,175.9916226156637</t>
+        </is>
+      </c>
+      <c r="N396" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:54:59+00:00</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>-41.189903948358285,175.9924525157367</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>-41.190527637464875,175.99207144206557</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>-41.19117532501726,175.99181281405544</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>-41.19182471415991,175.99151626933642</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>-41.19249613809961,175.9912973816447</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>-41.193188168684486,175.99122329904665</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>-41.193877309043145,175.9911963058957</t>
+        </is>
+      </c>
+      <c r="I397" t="inlineStr">
+        <is>
+          <t>-41.1945552686925,175.99128861756842</t>
+        </is>
+      </c>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>-41.19523819837247,175.99134856460012</t>
+        </is>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>-41.1959375907163,175.99134939653527</t>
+        </is>
+      </c>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>-41.1965930951203,175.99158421491748</t>
+        </is>
+      </c>
+      <c r="M397" t="inlineStr">
+        <is>
+          <t>-41.19726774288891,175.99170256940948</t>
+        </is>
+      </c>
+      <c r="N397" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0346/nzd0346.xlsx
+++ b/data/nzd0346/nzd0346.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N397"/>
+  <dimension ref="A1:N398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18360,6 +18360,54 @@
         </is>
       </c>
     </row>
+    <row r="398">
+      <c r="A398" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-29 21:55:08+00:00</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>352.47</v>
+      </c>
+      <c r="C398" t="n">
+        <v>343.01</v>
+      </c>
+      <c r="D398" t="n">
+        <v>333.03</v>
+      </c>
+      <c r="E398" t="n">
+        <v>334.14</v>
+      </c>
+      <c r="F398" t="n">
+        <v>338.58</v>
+      </c>
+      <c r="G398" t="n">
+        <v>336.9472727272728</v>
+      </c>
+      <c r="H398" t="n">
+        <v>341.93</v>
+      </c>
+      <c r="I398" t="n">
+        <v>334.5366666666667</v>
+      </c>
+      <c r="J398" t="n">
+        <v>346.9966666666667</v>
+      </c>
+      <c r="K398" t="n">
+        <v>335.2272727272727</v>
+      </c>
+      <c r="L398" t="n">
+        <v>330.4042857142857</v>
+      </c>
+      <c r="M398" t="n">
+        <v>340.91</v>
+      </c>
+      <c r="N398" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18371,7 +18419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B423"/>
+  <dimension ref="A1:B424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22609,6 +22657,16 @@
       </c>
       <c r="B423" t="n">
         <v>0.55</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>2025-09-29 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>
@@ -23699,7 +23757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N397"/>
+  <dimension ref="A1:N398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49979,6 +50037,78 @@
         </is>
       </c>
     </row>
+    <row r="398">
+      <c r="A398" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-29 21:55:08+00:00</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>-41.18992574487365,175.9925636974609</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>-41.19055456687,175.99220880578076</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>-41.19118220628312,175.99184791459757</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>-41.19184052186415,175.99161248403328</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>-41.19251735732573,175.9914855941184</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>-41.19319381110339,175.99133383365844</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>-41.19387668335581,175.99135979364962</t>
+        </is>
+      </c>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>-41.194555564511624,175.99127151555106</t>
+        </is>
+      </c>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>-41.19523200973532,175.99141904562185</t>
+        </is>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>-41.19592141713081,175.99144751112937</t>
+        </is>
+      </c>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>-41.19659576426741,175.99156900931413</t>
+        </is>
+      </c>
+      <c r="M398" t="inlineStr">
+        <is>
+          <t>-41.19723540359716,175.99188090088654</t>
+        </is>
+      </c>
+      <c r="N398" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0346/nzd0346.xlsx
+++ b/data/nzd0346/nzd0346.xlsx
@@ -22840,28 +22840,28 @@
         <v>0.055</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1933355932483881</v>
+        <v>-0.1866203812515494</v>
       </c>
       <c r="J2" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K2" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02661238039449043</v>
+        <v>0.02483447373779712</v>
       </c>
       <c r="M2" t="n">
-        <v>6.707399543104811</v>
+        <v>6.725312411833301</v>
       </c>
       <c r="N2" t="n">
-        <v>80.32279140976965</v>
+        <v>80.56209295571784</v>
       </c>
       <c r="O2" t="n">
-        <v>8.962298333004188</v>
+        <v>8.975638860589136</v>
       </c>
       <c r="P2" t="n">
-        <v>344.7054372841175</v>
+        <v>344.6386067372732</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22918,28 +22918,28 @@
         <v>0.0564</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1372238246042546</v>
+        <v>-0.1323844492151486</v>
       </c>
       <c r="J3" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K3" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01453845311692747</v>
+        <v>0.01357458301354597</v>
       </c>
       <c r="M3" t="n">
-        <v>6.611271350350733</v>
+        <v>6.620004579166144</v>
       </c>
       <c r="N3" t="n">
-        <v>74.93997326598419</v>
+        <v>74.97010864296489</v>
       </c>
       <c r="O3" t="n">
-        <v>8.656787699024633</v>
+        <v>8.658528087554194</v>
       </c>
       <c r="P3" t="n">
-        <v>337.3207570152122</v>
+        <v>337.2723849259393</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22996,28 +22996,28 @@
         <v>0.0669</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.04296362068427148</v>
+        <v>-0.04234335079138511</v>
       </c>
       <c r="J4" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K4" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001429597317238129</v>
+        <v>0.001396410935624592</v>
       </c>
       <c r="M4" t="n">
-        <v>6.271604605216611</v>
+        <v>6.25761888624556</v>
       </c>
       <c r="N4" t="n">
-        <v>74.23002642695361</v>
+        <v>74.02127594420892</v>
       </c>
       <c r="O4" t="n">
-        <v>8.615684907594614</v>
+        <v>8.603561817306186</v>
       </c>
       <c r="P4" t="n">
-        <v>332.974694500933</v>
+        <v>332.9684406347677</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23074,28 +23074,28 @@
         <v>0.0654</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.04803628074998474</v>
+        <v>-0.04758157802572777</v>
       </c>
       <c r="J5" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K5" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001737114275076723</v>
+        <v>0.001713755896086133</v>
       </c>
       <c r="M5" t="n">
-        <v>6.369492661465313</v>
+        <v>6.354447521157853</v>
       </c>
       <c r="N5" t="n">
-        <v>76.60287442407528</v>
+        <v>76.38987361804735</v>
       </c>
       <c r="O5" t="n">
-        <v>8.752306805869827</v>
+        <v>8.740130068714501</v>
       </c>
       <c r="P5" t="n">
-        <v>334.5115544241063</v>
+        <v>334.5069783991725</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23152,28 +23152,28 @@
         <v>0.0579</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02316159868013212</v>
+        <v>0.02544096391153016</v>
       </c>
       <c r="J6" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K6" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0004186571526727523</v>
+        <v>0.000507536863030511</v>
       </c>
       <c r="M6" t="n">
-        <v>6.767639131972545</v>
+        <v>6.761672266310413</v>
       </c>
       <c r="N6" t="n">
-        <v>74.84886869517443</v>
+        <v>74.68610762718271</v>
       </c>
       <c r="O6" t="n">
-        <v>8.651524067768316</v>
+        <v>8.642112451662655</v>
       </c>
       <c r="P6" t="n">
-        <v>333.6323751638166</v>
+        <v>333.6095825769899</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23230,28 +23230,28 @@
         <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05530209644448948</v>
+        <v>0.05470957901492705</v>
       </c>
       <c r="J7" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K7" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00295849943284221</v>
+        <v>0.002911938103798861</v>
       </c>
       <c r="M7" t="n">
-        <v>6.144478476626411</v>
+        <v>6.129431231943318</v>
       </c>
       <c r="N7" t="n">
-        <v>60.40239014917255</v>
+        <v>60.23041496097419</v>
       </c>
       <c r="O7" t="n">
-        <v>7.771897461313585</v>
+        <v>7.760825662323191</v>
       </c>
       <c r="P7" t="n">
-        <v>336.6217476874568</v>
+        <v>336.6276381519485</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23308,28 +23308,28 @@
         <v>0.053</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1271749853167398</v>
+        <v>0.1297094059085267</v>
       </c>
       <c r="J8" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K8" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01222034704416797</v>
+        <v>0.01276465141627414</v>
       </c>
       <c r="M8" t="n">
-        <v>6.834186011965144</v>
+        <v>6.830894375071857</v>
       </c>
       <c r="N8" t="n">
-        <v>77.81232823267804</v>
+        <v>77.6607715644673</v>
       </c>
       <c r="O8" t="n">
-        <v>8.821129646064502</v>
+        <v>8.812534911389985</v>
       </c>
       <c r="P8" t="n">
-        <v>333.655037866292</v>
+        <v>333.6301634089241</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23386,28 +23386,28 @@
         <v>0.0513</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2097855162995719</v>
+        <v>0.2093143630128239</v>
       </c>
       <c r="J9" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K9" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0225875302076316</v>
+        <v>0.02261269426883927</v>
       </c>
       <c r="M9" t="n">
-        <v>8.336351661004114</v>
+        <v>8.314659249043528</v>
       </c>
       <c r="N9" t="n">
-        <v>113.6824447825181</v>
+        <v>113.3571721218367</v>
       </c>
       <c r="O9" t="n">
-        <v>10.66219699604721</v>
+        <v>10.64693252170956</v>
       </c>
       <c r="P9" t="n">
-        <v>329.9598175647595</v>
+        <v>329.9644282530953</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23464,28 +23464,28 @@
         <v>0.0525</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2114777200851857</v>
+        <v>0.215503118201023</v>
       </c>
       <c r="J10" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K10" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01990612470447206</v>
+        <v>0.02074067013037884</v>
       </c>
       <c r="M10" t="n">
-        <v>9.104779869084453</v>
+        <v>9.102478358818782</v>
       </c>
       <c r="N10" t="n">
-        <v>132.3146500616509</v>
+        <v>132.1112472446337</v>
       </c>
       <c r="O10" t="n">
-        <v>11.50281052880777</v>
+        <v>11.4939656883355</v>
       </c>
       <c r="P10" t="n">
-        <v>333.6060057799303</v>
+        <v>333.5666703170097</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23542,28 +23542,28 @@
         <v>0.0608</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1192858681861862</v>
+        <v>0.1202801751450486</v>
       </c>
       <c r="J11" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K11" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L11" t="n">
-        <v>0.007271316081332913</v>
+        <v>0.007430158919077834</v>
       </c>
       <c r="M11" t="n">
-        <v>8.292256729181274</v>
+        <v>8.275581510184029</v>
       </c>
       <c r="N11" t="n">
-        <v>114.7130487813088</v>
+        <v>114.4107122105313</v>
       </c>
       <c r="O11" t="n">
-        <v>10.71041776875715</v>
+        <v>10.69629432142419</v>
       </c>
       <c r="P11" t="n">
-        <v>330.0875119016409</v>
+        <v>330.0776451717635</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23620,28 +23620,28 @@
         <v>0.0392</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.08664871177317608</v>
+        <v>-0.0862265996967827</v>
       </c>
       <c r="J12" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K12" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L12" t="n">
-        <v>0.003256784753400521</v>
+        <v>0.003242963019196798</v>
       </c>
       <c r="M12" t="n">
-        <v>8.741060686054103</v>
+        <v>8.719091005693645</v>
       </c>
       <c r="N12" t="n">
-        <v>136.1741218599312</v>
+        <v>135.7956620877646</v>
       </c>
       <c r="O12" t="n">
-        <v>11.66936681486752</v>
+        <v>11.65313958072092</v>
       </c>
       <c r="P12" t="n">
-        <v>331.8372466299501</v>
+        <v>331.8330971392327</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23698,28 +23698,28 @@
         <v>0.0288</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.00771246009840054</v>
+        <v>-0.001717092076484202</v>
       </c>
       <c r="J13" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K13" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L13" t="n">
-        <v>1.451365549187678e-05</v>
+        <v>7.22704114664019e-07</v>
       </c>
       <c r="M13" t="n">
-        <v>11.8761289334882</v>
+        <v>11.87390295703462</v>
       </c>
       <c r="N13" t="n">
-        <v>246.0558923358866</v>
+        <v>245.6691656355731</v>
       </c>
       <c r="O13" t="n">
-        <v>15.68616882275231</v>
+        <v>15.67383697872263</v>
       </c>
       <c r="P13" t="n">
-        <v>330.1793697480815</v>
+        <v>330.1211595040646</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">

--- a/data/nzd0346/nzd0346.xlsx
+++ b/data/nzd0346/nzd0346.xlsx
@@ -22831,13 +22831,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0457</v>
+        <v>0.0866</v>
       </c>
       <c r="H2" t="n">
-        <v>0.055</v>
+        <v>0.1449</v>
       </c>
       <c r="I2" t="n">
         <v>-0.1866203812515493</v>
@@ -22909,13 +22909,13 @@
         <v>0.09095513355429678</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0466</v>
+        <v>0.0801</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0564</v>
+        <v>0.1253</v>
       </c>
       <c r="I3" t="n">
         <v>-0.1323844492151484</v>
@@ -22987,13 +22987,13 @@
         <v>0.1819102671087059</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06</v>
+        <v>0.115</v>
       </c>
       <c r="G4" t="n">
-        <v>0.055</v>
+        <v>0.0935</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0669</v>
+        <v>0.1513</v>
       </c>
       <c r="I4" t="n">
         <v>-0.0423783812610636</v>
@@ -23065,13 +23065,13 @@
         <v>0.2728654006630027</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0537</v>
+        <v>0.0645</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0654</v>
+        <v>0.0772</v>
       </c>
       <c r="I5" t="n">
         <v>-0.04761234074842965</v>
@@ -23143,13 +23143,13 @@
         <v>0.3636308950101763</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0476</v>
+        <v>0.0672</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0579</v>
+        <v>0.1168</v>
       </c>
       <c r="I6" t="n">
         <v>0.02544096391153001</v>
@@ -23221,13 +23221,13 @@
         <v>0.4545860285648738</v>
       </c>
       <c r="F7" t="n">
-        <v>0.055</v>
+        <v>0.11</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0484</v>
+        <v>0.0727</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="I7" t="n">
         <v>0.05471564937480936</v>
@@ -23299,13 +23299,13 @@
         <v>0.5453633536099063</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0434</v>
+        <v>0.0654</v>
       </c>
       <c r="H8" t="n">
-        <v>0.053</v>
+        <v>0.1041</v>
       </c>
       <c r="I8" t="n">
         <v>0.1297094059085269</v>
@@ -23377,13 +23377,13 @@
         <v>0.6363184871646093</v>
       </c>
       <c r="F9" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0421</v>
+        <v>0.0473</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0513</v>
+        <v>0.0634</v>
       </c>
       <c r="I9" t="n">
         <v>0.2093079884620156</v>
@@ -23455,13 +23455,13 @@
         <v>0.7272736207193122</v>
       </c>
       <c r="F10" t="n">
-        <v>0.045</v>
+        <v>0.065</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0412</v>
+        <v>0.0569</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0525</v>
+        <v>0.0756</v>
       </c>
       <c r="I10" t="n">
         <v>0.2154926209713436</v>
@@ -23533,13 +23533,13 @@
         <v>0.8181235261077834</v>
       </c>
       <c r="F11" t="n">
-        <v>0.055</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0488</v>
+        <v>0.0533</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0608</v>
+        <v>0.095</v>
       </c>
       <c r="I11" t="n">
         <v>0.1203014225286105</v>
@@ -23611,13 +23611,13 @@
         <v>0.9090786596624914</v>
       </c>
       <c r="F12" t="n">
-        <v>0.035</v>
+        <v>0.055</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0343</v>
+        <v>0.0463</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0392</v>
+        <v>0.073</v>
       </c>
       <c r="I12" t="n">
         <v>-0.08624593951070611</v>
@@ -23689,13 +23689,13 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.025</v>
+        <v>0.035</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0241</v>
+        <v>0.0299</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0288</v>
+        <v>0.0459</v>
       </c>
       <c r="I13" t="n">
         <v>-0.001717092076484152</v>
